--- a/Code/Results/Cases/Case_5_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_45/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9813768726311645</v>
+        <v>1.000550059245317</v>
       </c>
       <c r="D2">
-        <v>1.003828651668715</v>
+        <v>1.018850974119543</v>
       </c>
       <c r="E2">
-        <v>0.987918520118261</v>
+        <v>1.012663867689281</v>
       </c>
       <c r="F2">
-        <v>0.9918171986185887</v>
+        <v>1.015190085836473</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038172872586141</v>
+        <v>1.046083288555433</v>
       </c>
       <c r="J2">
-        <v>1.004129233186833</v>
+        <v>1.022714330573907</v>
       </c>
       <c r="K2">
-        <v>1.015234903756653</v>
+        <v>1.030053786274874</v>
       </c>
       <c r="L2">
-        <v>0.9995487753020749</v>
+        <v>1.023949549572965</v>
       </c>
       <c r="M2">
-        <v>1.003391722416734</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.02644177839773</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9911134112553662</v>
+        <v>1.008326532238186</v>
       </c>
       <c r="D3">
-        <v>1.011402121976021</v>
+        <v>1.024815750571889</v>
       </c>
       <c r="E3">
-        <v>0.9963527889294298</v>
+        <v>1.019528376051095</v>
       </c>
       <c r="F3">
-        <v>1.001583080400451</v>
+        <v>1.02284593507924</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041804045785621</v>
+        <v>1.048616558284029</v>
       </c>
       <c r="J3">
-        <v>1.011849300555449</v>
+        <v>1.028592752899169</v>
       </c>
       <c r="K3">
-        <v>1.021891159989935</v>
+        <v>1.03514065781528</v>
       </c>
       <c r="L3">
-        <v>1.007032550197165</v>
+        <v>1.029917339271609</v>
       </c>
       <c r="M3">
-        <v>1.012195745412872</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.033194610306842</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9971602011783043</v>
+        <v>1.013200151341719</v>
       </c>
       <c r="D4">
-        <v>1.016108499905863</v>
+        <v>1.028554378755266</v>
       </c>
       <c r="E4">
-        <v>1.001591635745979</v>
+        <v>1.023836941921225</v>
       </c>
       <c r="F4">
-        <v>1.007656664757671</v>
+        <v>1.027653204429804</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044042374688356</v>
+        <v>1.050187229189832</v>
       </c>
       <c r="J4">
-        <v>1.016636829316832</v>
+        <v>1.032272118778893</v>
       </c>
       <c r="K4">
-        <v>1.026016320564198</v>
+        <v>1.038319972097399</v>
       </c>
       <c r="L4">
-        <v>1.011670889009829</v>
+        <v>1.033655942620099</v>
       </c>
       <c r="M4">
-        <v>1.01766355064497</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.037428953522795</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9996461495285924</v>
+        <v>1.01521334285026</v>
       </c>
       <c r="D5">
-        <v>1.018043907362719</v>
+        <v>1.030098703540938</v>
       </c>
       <c r="E5">
-        <v>1.003745502492168</v>
+        <v>1.025618191994506</v>
       </c>
       <c r="F5">
-        <v>1.010155611571037</v>
+        <v>1.029641141892629</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044958483329811</v>
+        <v>1.050831891557403</v>
       </c>
       <c r="J5">
-        <v>1.018603322137436</v>
+        <v>1.033790785633698</v>
       </c>
       <c r="K5">
-        <v>1.027710062946709</v>
+        <v>1.039631099746044</v>
       </c>
       <c r="L5">
-        <v>1.013575460652543</v>
+        <v>1.035199852355031</v>
       </c>
       <c r="M5">
-        <v>1.019911427611557</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.039178544943741</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00006038225882</v>
+        <v>1.015549335128001</v>
       </c>
       <c r="D6">
-        <v>1.018366429823473</v>
+        <v>1.030356439122516</v>
       </c>
       <c r="E6">
-        <v>1.004104402034757</v>
+        <v>1.025915558440131</v>
       </c>
       <c r="F6">
-        <v>1.010572124906362</v>
+        <v>1.029973044281396</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045110889995613</v>
+        <v>1.050939236398285</v>
       </c>
       <c r="J6">
-        <v>1.018930892961742</v>
+        <v>1.034044171301317</v>
       </c>
       <c r="K6">
-        <v>1.027992158790046</v>
+        <v>1.039849789866138</v>
       </c>
       <c r="L6">
-        <v>1.013892679071492</v>
+        <v>1.035457496373385</v>
       </c>
       <c r="M6">
-        <v>1.020285986196452</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.039470569424551</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9971936334605518</v>
+        <v>1.0132271891135</v>
       </c>
       <c r="D7">
-        <v>1.016134526368745</v>
+        <v>1.028575119767023</v>
       </c>
       <c r="E7">
-        <v>1.001620601861526</v>
+        <v>1.023860858936022</v>
       </c>
       <c r="F7">
-        <v>1.007690264076834</v>
+        <v>1.027679894586399</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044054711388501</v>
+        <v>1.050195903732377</v>
       </c>
       <c r="J7">
-        <v>1.016663282743772</v>
+        <v>1.032292519789467</v>
       </c>
       <c r="K7">
-        <v>1.026039107685187</v>
+        <v>1.038337589697985</v>
       </c>
       <c r="L7">
-        <v>1.011696512015518</v>
+        <v>1.033676679591067</v>
       </c>
       <c r="M7">
-        <v>1.01769378147588</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.037452449285725</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9847227651237132</v>
+        <v>1.003212325219448</v>
       </c>
       <c r="D8">
-        <v>1.006430478751081</v>
+        <v>1.02089283734017</v>
       </c>
       <c r="E8">
-        <v>0.9908166448678427</v>
+        <v>1.015012497369281</v>
       </c>
       <c r="F8">
-        <v>0.9951713036376042</v>
+        <v>1.017809060352579</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039424212822745</v>
+        <v>1.046954084927322</v>
       </c>
       <c r="J8">
-        <v>1.006783603640754</v>
+        <v>1.024727753352321</v>
       </c>
       <c r="K8">
-        <v>1.01752404400287</v>
+        <v>1.031797047646508</v>
       </c>
       <c r="L8">
-        <v>1.002122464426898</v>
+        <v>1.025992883289686</v>
       </c>
       <c r="M8">
-        <v>1.006417082416438</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.028753081418067</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9605680355864067</v>
+        <v>0.9842413558569133</v>
       </c>
       <c r="D9">
-        <v>0.9876691553036172</v>
+        <v>1.006350496940966</v>
       </c>
       <c r="E9">
-        <v>0.9699040125953111</v>
+        <v>0.9983086875099364</v>
       </c>
       <c r="F9">
-        <v>0.9709989126407977</v>
+        <v>0.9991898273576159</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030320279480425</v>
+        <v>1.040678793897397</v>
       </c>
       <c r="J9">
-        <v>0.9875944286546271</v>
+        <v>1.01036313389119</v>
       </c>
       <c r="K9">
-        <v>1.000965510982601</v>
+        <v>1.019341375210935</v>
       </c>
       <c r="L9">
-        <v>0.983505008751182</v>
+        <v>1.011429264809763</v>
       </c>
       <c r="M9">
-        <v>0.9845807156432266</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.01229606273787</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.942595630744921</v>
+        <v>0.9705267949131721</v>
       </c>
       <c r="D10">
-        <v>0.9737502208052978</v>
+        <v>0.9958548894073495</v>
       </c>
       <c r="E10">
-        <v>0.9543647147827127</v>
+        <v>0.9862797914623682</v>
       </c>
       <c r="F10">
-        <v>0.9530725579955328</v>
+        <v>0.9857891845062646</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023460630071605</v>
+        <v>1.036056484584375</v>
       </c>
       <c r="J10">
-        <v>0.9732876448134008</v>
+        <v>0.99996062464918</v>
       </c>
       <c r="K10">
-        <v>0.9886101682336457</v>
+        <v>1.010299390606123</v>
       </c>
       <c r="L10">
-        <v>0.9696098914864318</v>
+        <v>1.000901267399489</v>
       </c>
       <c r="M10">
-        <v>0.968344147330256</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.000419849131022</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9342523385004106</v>
+        <v>0.964287707155564</v>
       </c>
       <c r="D11">
-        <v>0.9673030574649244</v>
+        <v>0.9910870524420583</v>
       </c>
       <c r="E11">
-        <v>0.9471592483328514</v>
+        <v>0.9808206093311328</v>
       </c>
       <c r="F11">
-        <v>0.9447667776628401</v>
+        <v>0.9797086078936547</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020257773013646</v>
+        <v>1.033934833048331</v>
       </c>
       <c r="J11">
-        <v>0.966641344212083</v>
+        <v>0.9952255080012617</v>
       </c>
       <c r="K11">
-        <v>0.9828691049239706</v>
+        <v>1.006179034333848</v>
       </c>
       <c r="L11">
-        <v>0.9631515466959771</v>
+        <v>0.9961135170906588</v>
       </c>
       <c r="M11">
-        <v>0.9608113069586518</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>0.9950236110765681</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9310561551809057</v>
+        <v>0.9619203124625959</v>
       </c>
       <c r="D12">
-        <v>0.9648359116648936</v>
+        <v>0.9892792163740557</v>
       </c>
       <c r="E12">
-        <v>0.9444005557777717</v>
+        <v>0.9787513007318472</v>
       </c>
       <c r="F12">
-        <v>0.9415876013296206</v>
+        <v>0.9774038693364331</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019028255364166</v>
+        <v>1.033127097124265</v>
       </c>
       <c r="J12">
-        <v>0.964094784061942</v>
+        <v>0.993428521905787</v>
       </c>
       <c r="K12">
-        <v>0.9806692991001583</v>
+        <v>1.00461473282554</v>
       </c>
       <c r="L12">
-        <v>0.9606765329326959</v>
+        <v>0.9942972376998388</v>
       </c>
       <c r="M12">
-        <v>0.9579265069082427</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>0.9929771685662797</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.931746379564494</v>
+        <v>0.9624304697975453</v>
       </c>
       <c r="D13">
-        <v>0.9653685696064317</v>
+        <v>0.9896687294342151</v>
       </c>
       <c r="E13">
-        <v>0.9449962238740165</v>
+        <v>0.9791971220081243</v>
       </c>
       <c r="F13">
-        <v>0.942274030401996</v>
+        <v>0.9779004088493365</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019293884182646</v>
+        <v>1.033301277239469</v>
       </c>
       <c r="J13">
-        <v>0.9646447372972845</v>
+        <v>0.9938157695485312</v>
       </c>
       <c r="K13">
-        <v>0.981144369747134</v>
+        <v>1.00495186410961</v>
       </c>
       <c r="L13">
-        <v>0.9612110557467602</v>
+        <v>0.9946886121501048</v>
       </c>
       <c r="M13">
-        <v>0.9585494422212975</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>0.9934181089475803</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9339902065567036</v>
+        <v>0.9640930659609712</v>
       </c>
       <c r="D14">
-        <v>0.9671006599279477</v>
+        <v>0.9909383887755344</v>
       </c>
       <c r="E14">
-        <v>0.9469329619885639</v>
+        <v>0.980650431176268</v>
       </c>
       <c r="F14">
-        <v>0.9445059859222559</v>
+        <v>0.9795190663420789</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02015698549647</v>
+        <v>1.033868476528428</v>
       </c>
       <c r="J14">
-        <v>0.9664324984025957</v>
+        <v>0.9950777688416058</v>
       </c>
       <c r="K14">
-        <v>0.9826886979376767</v>
+        <v>1.006050437467201</v>
       </c>
       <c r="L14">
-        <v>0.9629485777920649</v>
+        <v>0.9959641778836319</v>
       </c>
       <c r="M14">
-        <v>0.9605746930068401</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>0.9948553337748609</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9353594015959272</v>
+        <v>0.9651106771452095</v>
       </c>
       <c r="D15">
-        <v>0.9681579547179282</v>
+        <v>0.9917156774612507</v>
       </c>
       <c r="E15">
-        <v>0.9481149918608212</v>
+        <v>0.9815402348627886</v>
       </c>
       <c r="F15">
-        <v>0.9458682886496035</v>
+        <v>0.9805101187229438</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020683327523775</v>
+        <v>1.034215289559244</v>
       </c>
       <c r="J15">
-        <v>0.9675233463495438</v>
+        <v>0.9958501597774718</v>
       </c>
       <c r="K15">
-        <v>0.9836310005873189</v>
+        <v>1.006722726417757</v>
       </c>
       <c r="L15">
-        <v>0.9640087105298591</v>
+        <v>0.996744961686437</v>
       </c>
       <c r="M15">
-        <v>0.9618106380646533</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>0.9957351579740623</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9431364951314773</v>
+        <v>0.9709341388971645</v>
       </c>
       <c r="D16">
-        <v>0.9741685001914897</v>
+        <v>0.996166340335419</v>
       </c>
       <c r="E16">
-        <v>0.9548320164842476</v>
+        <v>0.986636501339894</v>
       </c>
       <c r="F16">
-        <v>0.953611337650932</v>
+        <v>0.9861865158557606</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023667899199991</v>
+        <v>1.036194627914522</v>
       </c>
       <c r="J16">
-        <v>0.9737184222215003</v>
+        <v>1.000269730792956</v>
       </c>
       <c r="K16">
-        <v>0.9889822545353925</v>
+        <v>1.010568276989099</v>
       </c>
       <c r="L16">
-        <v>0.9700284211815245</v>
+        <v>1.001213902641782</v>
       </c>
       <c r="M16">
-        <v>0.9688325849425269</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.000772311770244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9478564338558187</v>
+        <v>0.9745034170719906</v>
       </c>
       <c r="D17">
-        <v>0.9778203320317076</v>
+        <v>0.998896174492105</v>
       </c>
       <c r="E17">
-        <v>0.9589109578848523</v>
+        <v>0.9897635966752174</v>
       </c>
       <c r="F17">
-        <v>0.9583148995383307</v>
+        <v>0.9896698427504815</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025474638391617</v>
+        <v>1.03740297902567</v>
       </c>
       <c r="J17">
-        <v>0.977477170514561</v>
+        <v>1.002977922684177</v>
       </c>
       <c r="K17">
-        <v>0.9922287579193466</v>
+        <v>1.012923585488263</v>
       </c>
       <c r="L17">
-        <v>0.9736799385196162</v>
+        <v>1.003953519656802</v>
       </c>
       <c r="M17">
-        <v>0.9730955491175156</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.003861454275107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9505563509877565</v>
+        <v>0.9765566696187045</v>
       </c>
       <c r="D18">
-        <v>0.9799105621671715</v>
+        <v>1.000467155606963</v>
       </c>
       <c r="E18">
-        <v>0.9612449517331801</v>
+        <v>0.991563689465744</v>
       </c>
       <c r="F18">
-        <v>0.9610069255492897</v>
+        <v>0.9916751110806328</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026506417785999</v>
+        <v>1.038096315872673</v>
       </c>
       <c r="J18">
-        <v>0.9796268127861595</v>
+        <v>1.004535560143896</v>
       </c>
       <c r="K18">
-        <v>0.9940853162010818</v>
+        <v>1.014277830205946</v>
       </c>
       <c r="L18">
-        <v>0.9757679493297957</v>
+        <v>1.005529651092453</v>
       </c>
       <c r="M18">
-        <v>0.9755344783278743</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.005639107042659</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9514682837024262</v>
+        <v>0.9772520501178039</v>
       </c>
       <c r="D19">
-        <v>0.9806167717640636</v>
+        <v>1.000999302581724</v>
       </c>
       <c r="E19">
-        <v>0.9620334056482469</v>
+        <v>0.9921735314827406</v>
       </c>
       <c r="F19">
-        <v>0.9619164378825285</v>
+        <v>0.9923544841499008</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026854617833264</v>
+        <v>1.038330824812099</v>
       </c>
       <c r="J19">
-        <v>0.9803528002035165</v>
+        <v>1.00506303964388</v>
       </c>
       <c r="K19">
-        <v>0.9947122971702086</v>
+        <v>1.014736358082484</v>
       </c>
       <c r="L19">
-        <v>0.9764730698459695</v>
+        <v>1.006063464395027</v>
       </c>
       <c r="M19">
-        <v>0.97635832323208</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.00624124727872</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9473556096320394</v>
+        <v>0.9741234625880277</v>
       </c>
       <c r="D20">
-        <v>0.9774327045228421</v>
+        <v>0.9986055132217938</v>
       </c>
       <c r="E20">
-        <v>0.9584780690920423</v>
+        <v>0.9894305861458137</v>
       </c>
       <c r="F20">
-        <v>0.9578156577734639</v>
+        <v>0.9892988850903058</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025283106243928</v>
+        <v>1.037274532077118</v>
       </c>
       <c r="J20">
-        <v>0.9770783819816661</v>
+        <v>1.002689658995576</v>
       </c>
       <c r="K20">
-        <v>0.9918843293531442</v>
+        <v>1.012672927397715</v>
       </c>
       <c r="L20">
-        <v>0.9732925584865176</v>
+        <v>1.003661867356582</v>
       </c>
       <c r="M20">
-        <v>0.9726431692899411</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.003532547295757</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9333322537068676</v>
+        <v>0.9636048926275924</v>
       </c>
       <c r="D21">
-        <v>0.9665926853211113</v>
+        <v>0.9905655520414673</v>
       </c>
       <c r="E21">
-        <v>0.9463650089435575</v>
+        <v>0.9802236481250481</v>
       </c>
       <c r="F21">
-        <v>0.9438514400472554</v>
+        <v>0.9790437241368227</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019903968048631</v>
+        <v>1.033702007265115</v>
       </c>
       <c r="J21">
-        <v>0.9659082874896341</v>
+        <v>0.9947072252486577</v>
       </c>
       <c r="K21">
-        <v>0.9822358684786687</v>
+        <v>1.005727894824591</v>
       </c>
       <c r="L21">
-        <v>0.962439110702745</v>
+        <v>0.9955896321971518</v>
       </c>
       <c r="M21">
-        <v>0.9599808059092674</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9944333016970693</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9239446787053238</v>
+        <v>0.9566997265663157</v>
       </c>
       <c r="D22">
-        <v>0.959352117955687</v>
+        <v>0.9852952958282742</v>
       </c>
       <c r="E22">
-        <v>0.9382659473594875</v>
+        <v>0.9741922711769619</v>
       </c>
       <c r="F22">
-        <v>0.9345191330939306</v>
+        <v>0.9723262740714602</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016288128508735</v>
+        <v>1.031341096324523</v>
       </c>
       <c r="J22">
-        <v>0.9584281570939878</v>
+        <v>0.989465491971032</v>
       </c>
       <c r="K22">
-        <v>0.9757742390299039</v>
+        <v>1.001163794523871</v>
       </c>
       <c r="L22">
-        <v>0.9551682747866651</v>
+        <v>0.9902929266675567</v>
       </c>
       <c r="M22">
-        <v>0.9515098302743707</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.988466635962814</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.928980380938436</v>
+        <v>0.960389720117473</v>
       </c>
       <c r="D23">
-        <v>0.9632344353510875</v>
+        <v>0.9881107981468151</v>
       </c>
       <c r="E23">
-        <v>0.9426094171262872</v>
+        <v>0.9774140638471687</v>
       </c>
       <c r="F23">
-        <v>0.9395236465146561</v>
+        <v>0.9759145143516534</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01822905010823</v>
+        <v>1.032604134484678</v>
       </c>
       <c r="J23">
-        <v>0.9624408125996121</v>
+        <v>0.9922666610352514</v>
       </c>
       <c r="K23">
-        <v>0.9792405311321072</v>
+        <v>1.003603150935719</v>
       </c>
       <c r="L23">
-        <v>0.95906890156415</v>
+        <v>0.9931230956732006</v>
       </c>
       <c r="M23">
-        <v>0.9560532501849165</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9916544230418085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9475820738295763</v>
+        <v>0.9742952358404332</v>
       </c>
       <c r="D24">
-        <v>0.9776079790900665</v>
+        <v>0.9987369160699496</v>
       </c>
       <c r="E24">
-        <v>0.9586738117554294</v>
+        <v>0.9895811328074401</v>
       </c>
       <c r="F24">
-        <v>0.9580414018240989</v>
+        <v>0.9894665864506417</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025369719192969</v>
+        <v>1.037332607063062</v>
       </c>
       <c r="J24">
-        <v>0.9772587087971566</v>
+        <v>1.002819980692891</v>
       </c>
       <c r="K24">
-        <v>0.9920400757323899</v>
+        <v>1.012786249244943</v>
       </c>
       <c r="L24">
-        <v>0.9734677274857995</v>
+        <v>1.003793719714217</v>
       </c>
       <c r="M24">
-        <v>0.9728477264859442</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.003681240672557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9671081209861593</v>
+        <v>0.9893195583706269</v>
       </c>
       <c r="D25">
-        <v>0.9927434836090675</v>
+        <v>1.010241087100008</v>
       </c>
       <c r="E25">
-        <v>0.9755637100479811</v>
+        <v>1.002772671065584</v>
       </c>
       <c r="F25">
-        <v>0.9775344614441324</v>
+        <v>1.004164213535999</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032800129248395</v>
+        <v>1.042373566803795</v>
       </c>
       <c r="J25">
-        <v>0.9927954975335903</v>
+        <v>1.014211786725434</v>
       </c>
       <c r="K25">
-        <v>1.005455501902973</v>
+        <v>1.022682476668657</v>
       </c>
       <c r="L25">
-        <v>0.9885535951274058</v>
+        <v>1.015328096830373</v>
       </c>
       <c r="M25">
-        <v>0.9904918335802032</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.016698227573405</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_45/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000550059245317</v>
+        <v>1.036035643358777</v>
       </c>
       <c r="D2">
-        <v>1.018850974119543</v>
+        <v>1.051173039120535</v>
       </c>
       <c r="E2">
-        <v>1.012663867689281</v>
+        <v>1.036811072013204</v>
       </c>
       <c r="F2">
-        <v>1.015190085836473</v>
+        <v>1.056476878629415</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046083288555433</v>
+        <v>1.06624262514048</v>
       </c>
       <c r="J2">
-        <v>1.022714330573907</v>
+        <v>1.057189477396311</v>
       </c>
       <c r="K2">
-        <v>1.030053786274874</v>
+        <v>1.061962678297411</v>
       </c>
       <c r="L2">
-        <v>1.023949549572965</v>
+        <v>1.047780328146162</v>
       </c>
       <c r="M2">
-        <v>1.02644177839773</v>
+        <v>1.06720172012168</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008326532238186</v>
+        <v>1.042083299105727</v>
       </c>
       <c r="D3">
-        <v>1.024815750571889</v>
+        <v>1.055938231326288</v>
       </c>
       <c r="E3">
-        <v>1.019528376051095</v>
+        <v>1.041860610558644</v>
       </c>
       <c r="F3">
-        <v>1.02284593507924</v>
+        <v>1.061805502489142</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048616558284029</v>
+        <v>1.068835741353032</v>
       </c>
       <c r="J3">
-        <v>1.028592752899169</v>
+        <v>1.061488959430958</v>
       </c>
       <c r="K3">
-        <v>1.03514065781528</v>
+        <v>1.065902109862879</v>
       </c>
       <c r="L3">
-        <v>1.029917339271609</v>
+        <v>1.051984492303004</v>
       </c>
       <c r="M3">
-        <v>1.033194610306842</v>
+        <v>1.071704234893553</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013200151341719</v>
+        <v>1.045899539603889</v>
       </c>
       <c r="D4">
-        <v>1.028554378755266</v>
+        <v>1.058947672819562</v>
       </c>
       <c r="E4">
-        <v>1.023836941921225</v>
+        <v>1.045051203069361</v>
       </c>
       <c r="F4">
-        <v>1.027653204429804</v>
+        <v>1.065173205860079</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050187229189832</v>
+        <v>1.070461520288425</v>
       </c>
       <c r="J4">
-        <v>1.032272118778893</v>
+        <v>1.064197793436759</v>
       </c>
       <c r="K4">
-        <v>1.038319972097399</v>
+        <v>1.068383131117941</v>
       </c>
       <c r="L4">
-        <v>1.033655942620099</v>
+        <v>1.054634683804713</v>
       </c>
       <c r="M4">
-        <v>1.037428953522795</v>
+        <v>1.074543880067006</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01521334285026</v>
+        <v>1.047481713127566</v>
       </c>
       <c r="D5">
-        <v>1.030098703540938</v>
+        <v>1.060195883660823</v>
       </c>
       <c r="E5">
-        <v>1.025618191994506</v>
+        <v>1.046374935595852</v>
       </c>
       <c r="F5">
-        <v>1.029641141892629</v>
+        <v>1.066570604808433</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050831891557403</v>
+        <v>1.071132977097659</v>
       </c>
       <c r="J5">
-        <v>1.033790785633698</v>
+        <v>1.065319781286864</v>
       </c>
       <c r="K5">
-        <v>1.039631099746044</v>
+        <v>1.069410516962188</v>
       </c>
       <c r="L5">
-        <v>1.035199852355031</v>
+        <v>1.055732713912407</v>
       </c>
       <c r="M5">
-        <v>1.039178544943741</v>
+        <v>1.075720735687521</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015549335128001</v>
+        <v>1.047746095917417</v>
       </c>
       <c r="D6">
-        <v>1.030356439122516</v>
+        <v>1.060404490147436</v>
       </c>
       <c r="E6">
-        <v>1.025915558440131</v>
+        <v>1.046596186591381</v>
       </c>
       <c r="F6">
-        <v>1.029973044281396</v>
+        <v>1.066804179486092</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050939236398285</v>
+        <v>1.071245025631749</v>
       </c>
       <c r="J6">
-        <v>1.034044171301317</v>
+        <v>1.065507202624424</v>
       </c>
       <c r="K6">
-        <v>1.039849789866138</v>
+        <v>1.069582121012006</v>
       </c>
       <c r="L6">
-        <v>1.035457496373385</v>
+        <v>1.055916152570788</v>
       </c>
       <c r="M6">
-        <v>1.039470569424551</v>
+        <v>1.075917362504024</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.0132271891135</v>
+        <v>1.045920766477086</v>
       </c>
       <c r="D7">
-        <v>1.028575119767023</v>
+        <v>1.058964417154868</v>
       </c>
       <c r="E7">
-        <v>1.023860858936022</v>
+        <v>1.045068958962807</v>
       </c>
       <c r="F7">
-        <v>1.027679894586399</v>
+        <v>1.065191949143304</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050195903732377</v>
+        <v>1.070470538970494</v>
       </c>
       <c r="J7">
-        <v>1.032292519789467</v>
+        <v>1.064212850607008</v>
       </c>
       <c r="K7">
-        <v>1.038337589697985</v>
+        <v>1.068396919696172</v>
       </c>
       <c r="L7">
-        <v>1.033676679591067</v>
+        <v>1.05464941815656</v>
       </c>
       <c r="M7">
-        <v>1.037452449285725</v>
+        <v>1.07455967086226</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003212325219448</v>
+        <v>1.038100213609378</v>
       </c>
       <c r="D8">
-        <v>1.02089283734017</v>
+        <v>1.052799236450331</v>
       </c>
       <c r="E8">
-        <v>1.015012497369281</v>
+        <v>1.038533982045287</v>
       </c>
       <c r="F8">
-        <v>1.017809060352579</v>
+        <v>1.058294852209672</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046954084927322</v>
+        <v>1.06713006476301</v>
       </c>
       <c r="J8">
-        <v>1.024727753352321</v>
+        <v>1.058658118021068</v>
       </c>
       <c r="K8">
-        <v>1.031797047646508</v>
+        <v>1.063308527909883</v>
       </c>
       <c r="L8">
-        <v>1.025992883289686</v>
+        <v>1.049216107990484</v>
       </c>
       <c r="M8">
-        <v>1.028753081418067</v>
+        <v>1.068739099575184</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9842413558569133</v>
+        <v>1.023525620366307</v>
       </c>
       <c r="D9">
-        <v>1.006350496940966</v>
+        <v>1.041332768163012</v>
       </c>
       <c r="E9">
-        <v>0.9983086875099364</v>
+        <v>1.026391916747727</v>
       </c>
       <c r="F9">
-        <v>0.9991898273576159</v>
+        <v>1.04548606877596</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040678793897397</v>
+        <v>1.060821963931776</v>
       </c>
       <c r="J9">
-        <v>1.01036313389119</v>
+        <v>1.048274130008252</v>
       </c>
       <c r="K9">
-        <v>1.019341375210935</v>
+        <v>1.05378904498696</v>
       </c>
       <c r="L9">
-        <v>1.011429264809763</v>
+        <v>1.03907083878194</v>
       </c>
       <c r="M9">
-        <v>1.01229606273787</v>
+        <v>1.057881887087295</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9705267949131721</v>
+        <v>1.013197744482173</v>
       </c>
       <c r="D10">
-        <v>0.9958548894073495</v>
+        <v>1.033228094250944</v>
       </c>
       <c r="E10">
-        <v>0.9862797914623682</v>
+        <v>1.017817346798868</v>
       </c>
       <c r="F10">
-        <v>0.9857891845062646</v>
+        <v>1.036444744073011</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036056484584375</v>
+        <v>1.056298781737481</v>
       </c>
       <c r="J10">
-        <v>0.99996062464918</v>
+        <v>1.040897345750001</v>
       </c>
       <c r="K10">
-        <v>1.010299390606123</v>
+        <v>1.047022248749986</v>
       </c>
       <c r="L10">
-        <v>1.000901267399489</v>
+        <v>1.031872186633187</v>
       </c>
       <c r="M10">
-        <v>1.000419849131022</v>
+        <v>1.050185744315909</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.964287707155564</v>
+        <v>1.008561061455242</v>
       </c>
       <c r="D11">
-        <v>0.9910870524420583</v>
+        <v>1.029595665814765</v>
       </c>
       <c r="E11">
-        <v>0.9808206093311328</v>
+        <v>1.013975974094969</v>
       </c>
       <c r="F11">
-        <v>0.9797086078936547</v>
+        <v>1.032395218437218</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033934833048331</v>
+        <v>1.05425623719866</v>
       </c>
       <c r="J11">
-        <v>0.9952255080012617</v>
+        <v>1.037581976773015</v>
       </c>
       <c r="K11">
-        <v>1.006179034333848</v>
+        <v>1.043980231047533</v>
       </c>
       <c r="L11">
-        <v>0.9961135170906588</v>
+        <v>1.02863905073678</v>
       </c>
       <c r="M11">
-        <v>0.9950236110765681</v>
+        <v>1.046731018084581</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9619203124625959</v>
+        <v>1.006812193728473</v>
       </c>
       <c r="D12">
-        <v>0.9892792163740557</v>
+        <v>1.028226622454261</v>
       </c>
       <c r="E12">
-        <v>0.9787513007318472</v>
+        <v>1.012528416062192</v>
       </c>
       <c r="F12">
-        <v>0.9774038693364331</v>
+        <v>1.030869363028492</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033127097124265</v>
+        <v>1.053484113945852</v>
       </c>
       <c r="J12">
-        <v>0.993428521905787</v>
+        <v>1.036331021486532</v>
       </c>
       <c r="K12">
-        <v>1.00461473282554</v>
+        <v>1.04283231427653</v>
       </c>
       <c r="L12">
-        <v>0.9942972376998388</v>
+        <v>1.027419464158152</v>
       </c>
       <c r="M12">
-        <v>0.9929771685662797</v>
+        <v>1.045428124697023</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9624304697975453</v>
+        <v>1.007188567289477</v>
       </c>
       <c r="D13">
-        <v>0.9896687294342151</v>
+        <v>1.028521205223729</v>
       </c>
       <c r="E13">
-        <v>0.9791971220081243</v>
+        <v>1.012839882763606</v>
       </c>
       <c r="F13">
-        <v>0.9779004088493365</v>
+        <v>1.031197670364932</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033301277239469</v>
+        <v>1.053650358748133</v>
       </c>
       <c r="J13">
-        <v>0.9938157695485312</v>
+        <v>1.036600258970942</v>
       </c>
       <c r="K13">
-        <v>1.00495186410961</v>
+        <v>1.043079379575974</v>
       </c>
       <c r="L13">
-        <v>0.9946886121501048</v>
+        <v>1.027681934686021</v>
       </c>
       <c r="M13">
-        <v>0.9934181089475803</v>
+        <v>1.045708511202416</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9640930659609712</v>
+        <v>1.008417053498686</v>
       </c>
       <c r="D14">
-        <v>0.9909383887755344</v>
+        <v>1.029482912158741</v>
       </c>
       <c r="E14">
-        <v>0.980650431176268</v>
+        <v>1.013856749317473</v>
       </c>
       <c r="F14">
-        <v>0.9795190663420789</v>
+        <v>1.032269542008355</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033868476528428</v>
+        <v>1.054192692235616</v>
       </c>
       <c r="J14">
-        <v>0.9950777688416058</v>
+        <v>1.037478977610731</v>
       </c>
       <c r="K14">
-        <v>1.006050437467201</v>
+        <v>1.043885717680571</v>
       </c>
       <c r="L14">
-        <v>0.9959641778836319</v>
+        <v>1.028538627365127</v>
       </c>
       <c r="M14">
-        <v>0.9948553337748609</v>
+        <v>1.046623729343822</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9651106771452095</v>
+        <v>1.009170381199934</v>
       </c>
       <c r="D15">
-        <v>0.9917156774612507</v>
+        <v>1.030072786806997</v>
       </c>
       <c r="E15">
-        <v>0.9815402348627886</v>
+        <v>1.014480487358272</v>
       </c>
       <c r="F15">
-        <v>0.9805101187229438</v>
+        <v>1.032927038358882</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034215289559244</v>
+        <v>1.054525036313199</v>
       </c>
       <c r="J15">
-        <v>0.9958501597774718</v>
+        <v>1.038017763686933</v>
       </c>
       <c r="K15">
-        <v>1.006722726417757</v>
+        <v>1.044380110709958</v>
       </c>
       <c r="L15">
-        <v>0.996744961686437</v>
+        <v>1.029063953486399</v>
       </c>
       <c r="M15">
-        <v>0.9957351579740623</v>
+        <v>1.047184980421021</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9709341388971645</v>
+        <v>1.013501842262588</v>
       </c>
       <c r="D16">
-        <v>0.996166340335419</v>
+        <v>1.033466464970327</v>
       </c>
       <c r="E16">
-        <v>0.986636501339894</v>
+        <v>1.018069462372384</v>
       </c>
       <c r="F16">
-        <v>0.9861865158557606</v>
+        <v>1.03671054072469</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036194627914522</v>
+        <v>1.056432501626202</v>
       </c>
       <c r="J16">
-        <v>1.000269730792956</v>
+        <v>1.041114716867833</v>
       </c>
       <c r="K16">
-        <v>1.010568276989099</v>
+        <v>1.047221682562562</v>
       </c>
       <c r="L16">
-        <v>1.001213902641782</v>
+        <v>1.032084212435648</v>
       </c>
       <c r="M16">
-        <v>1.000772311770244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.050412340375483</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9745034170719906</v>
+        <v>1.016173515696749</v>
       </c>
       <c r="D17">
-        <v>0.998896174492105</v>
+        <v>1.035561398555611</v>
       </c>
       <c r="E17">
-        <v>0.9897635966752174</v>
+        <v>1.020285379827449</v>
       </c>
       <c r="F17">
-        <v>0.9896698427504815</v>
+        <v>1.039046812945978</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03740297902567</v>
+        <v>1.057605970196337</v>
       </c>
       <c r="J17">
-        <v>1.002977922684177</v>
+        <v>1.043024050296581</v>
       </c>
       <c r="K17">
-        <v>1.012923585488263</v>
+        <v>1.048973370857337</v>
       </c>
       <c r="L17">
-        <v>1.003953519656802</v>
+        <v>1.033946841810995</v>
       </c>
       <c r="M17">
-        <v>1.003861454275107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.052403177946407</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9765566696187045</v>
+        <v>1.017716106832915</v>
       </c>
       <c r="D18">
-        <v>1.000467155606963</v>
+        <v>1.036771560125299</v>
       </c>
       <c r="E18">
-        <v>0.991563689465744</v>
+        <v>1.021565586725484</v>
       </c>
       <c r="F18">
-        <v>0.9916751110806328</v>
+        <v>1.040396642687657</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038096315872673</v>
+        <v>1.058282391039014</v>
       </c>
       <c r="J18">
-        <v>1.004535560143896</v>
+        <v>1.044126133149439</v>
       </c>
       <c r="K18">
-        <v>1.014277830205946</v>
+        <v>1.049984383217405</v>
       </c>
       <c r="L18">
-        <v>1.005529651092453</v>
+        <v>1.035022170937154</v>
       </c>
       <c r="M18">
-        <v>1.005639107042659</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.053552698195646</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9772520501178039</v>
+        <v>1.018239472515739</v>
       </c>
       <c r="D19">
-        <v>1.000999302581724</v>
+        <v>1.037182234024612</v>
       </c>
       <c r="E19">
-        <v>0.9921735314827406</v>
+        <v>1.022000057967991</v>
       </c>
       <c r="F19">
-        <v>0.9923544841499008</v>
+        <v>1.040854757546675</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038330824812099</v>
+        <v>1.058511692225311</v>
       </c>
       <c r="J19">
-        <v>1.00506303964388</v>
+        <v>1.044499984257071</v>
       </c>
       <c r="K19">
-        <v>1.014736358082484</v>
+        <v>1.050327327720028</v>
       </c>
       <c r="L19">
-        <v>1.006063464395027</v>
+        <v>1.035386980838029</v>
       </c>
       <c r="M19">
-        <v>1.00624124727872</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.053942707228438</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9741234625880277</v>
+        <v>1.015888512465992</v>
       </c>
       <c r="D20">
-        <v>0.9986055132217938</v>
+        <v>1.035337859309537</v>
       </c>
       <c r="E20">
-        <v>0.9894305861458137</v>
+        <v>1.020048914761568</v>
       </c>
       <c r="F20">
-        <v>0.9892988850903058</v>
+        <v>1.038797495241696</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037274532077118</v>
+        <v>1.057480905741994</v>
       </c>
       <c r="J20">
-        <v>1.002689658995576</v>
+        <v>1.042820405452941</v>
       </c>
       <c r="K20">
-        <v>1.012672927397715</v>
+        <v>1.04878654787755</v>
       </c>
       <c r="L20">
-        <v>1.003661867356582</v>
+        <v>1.033748157003557</v>
       </c>
       <c r="M20">
-        <v>1.003532547295757</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.052190799186681</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9636048926275924</v>
+        <v>1.008056045020241</v>
       </c>
       <c r="D21">
-        <v>0.9905655520414673</v>
+        <v>1.029200271111393</v>
       </c>
       <c r="E21">
-        <v>0.9802236481250481</v>
+        <v>1.013557890766023</v>
       </c>
       <c r="F21">
-        <v>0.9790437241368227</v>
+        <v>1.031954513496856</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033702007265115</v>
+        <v>1.05403336625023</v>
       </c>
       <c r="J21">
-        <v>0.9947072252486577</v>
+        <v>1.037220765469022</v>
       </c>
       <c r="K21">
-        <v>1.005727894824591</v>
+        <v>1.043648777284295</v>
       </c>
       <c r="L21">
-        <v>0.9955896321971518</v>
+        <v>1.028286878090469</v>
       </c>
       <c r="M21">
-        <v>0.9944333016970693</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.046354773938774</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9566997265663157</v>
+        <v>1.002976516799524</v>
       </c>
       <c r="D22">
-        <v>0.9852952958282742</v>
+        <v>1.025226037725017</v>
       </c>
       <c r="E22">
-        <v>0.9741922711769619</v>
+        <v>1.009356165020801</v>
       </c>
       <c r="F22">
-        <v>0.9723262740714602</v>
+        <v>1.027525786531955</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031341096324523</v>
+        <v>1.051787588885166</v>
       </c>
       <c r="J22">
-        <v>0.989465491971032</v>
+        <v>1.033586621056943</v>
       </c>
       <c r="K22">
-        <v>1.001163794523871</v>
+        <v>1.0403137959556</v>
       </c>
       <c r="L22">
-        <v>0.9902929266675567</v>
+        <v>1.024744525440886</v>
       </c>
       <c r="M22">
-        <v>0.988466635962814</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.042570987517565</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.960389720117473</v>
+        <v>1.005684629147467</v>
       </c>
       <c r="D23">
-        <v>0.9881107981468151</v>
+        <v>1.027344253676125</v>
       </c>
       <c r="E23">
-        <v>0.9774140638471687</v>
+        <v>1.011595507937272</v>
       </c>
       <c r="F23">
-        <v>0.9759145143516534</v>
+        <v>1.029886034325638</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032604134484678</v>
+        <v>1.052985821129324</v>
       </c>
       <c r="J23">
-        <v>0.9922666610352514</v>
+        <v>1.035524360614704</v>
       </c>
       <c r="K23">
-        <v>1.003603150935719</v>
+        <v>1.042092069759029</v>
       </c>
       <c r="L23">
-        <v>0.9931230956732006</v>
+        <v>1.026633128767047</v>
       </c>
       <c r="M23">
-        <v>0.9916544230418085</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.044588156150583</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9742952358404332</v>
+        <v>1.016017341695102</v>
       </c>
       <c r="D24">
-        <v>0.9987369160699496</v>
+        <v>1.035438903372754</v>
       </c>
       <c r="E24">
-        <v>0.9895811328074401</v>
+        <v>1.020155801055141</v>
       </c>
       <c r="F24">
-        <v>0.9894665864506417</v>
+        <v>1.038910190870393</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037332607063062</v>
+        <v>1.057537441782149</v>
       </c>
       <c r="J24">
-        <v>1.002819980692891</v>
+        <v>1.042912459542241</v>
       </c>
       <c r="K24">
-        <v>1.012786249244943</v>
+        <v>1.048870998176093</v>
       </c>
       <c r="L24">
-        <v>1.003793719714217</v>
+        <v>1.033837968362351</v>
       </c>
       <c r="M24">
-        <v>1.003681240672557</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.052286800072833</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9893195583706269</v>
+        <v>1.027395158173465</v>
       </c>
       <c r="D25">
-        <v>1.010241087100008</v>
+        <v>1.044373932667388</v>
       </c>
       <c r="E25">
-        <v>1.002772671065584</v>
+        <v>1.029610909959398</v>
       </c>
       <c r="F25">
-        <v>1.004164213535999</v>
+        <v>1.04888111261574</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042373566803795</v>
+        <v>1.062506081105338</v>
       </c>
       <c r="J25">
-        <v>1.014211786725434</v>
+        <v>1.051034475910187</v>
       </c>
       <c r="K25">
-        <v>1.022682476668657</v>
+        <v>1.056320351074897</v>
       </c>
       <c r="L25">
-        <v>1.015328096830373</v>
+        <v>1.041766309152586</v>
       </c>
       <c r="M25">
-        <v>1.016698227573405</v>
+        <v>1.060765206133704</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_45/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.036035643358777</v>
+        <v>1.0620341478923</v>
       </c>
       <c r="D2">
-        <v>1.051173039120535</v>
+        <v>1.06547544941012</v>
       </c>
       <c r="E2">
-        <v>1.036811072013204</v>
+        <v>1.057539734874008</v>
       </c>
       <c r="F2">
-        <v>1.056476878629415</v>
+        <v>1.075063029343669</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06624262514048</v>
+        <v>1.056633681462053</v>
       </c>
       <c r="J2">
-        <v>1.057189477396311</v>
+        <v>1.067006753425094</v>
       </c>
       <c r="K2">
-        <v>1.061962678297411</v>
+        <v>1.068188589065256</v>
       </c>
       <c r="L2">
-        <v>1.047780328146162</v>
+        <v>1.060274426405623</v>
       </c>
       <c r="M2">
-        <v>1.06720172012168</v>
+        <v>1.077750589779761</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.042083299105727</v>
+        <v>1.063255706570799</v>
       </c>
       <c r="D3">
-        <v>1.055938231326288</v>
+        <v>1.066448501941961</v>
       </c>
       <c r="E3">
-        <v>1.041860610558644</v>
+        <v>1.058595181580479</v>
       </c>
       <c r="F3">
-        <v>1.061805502489142</v>
+        <v>1.076178254674246</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.068835741353032</v>
+        <v>1.057076319578798</v>
       </c>
       <c r="J3">
-        <v>1.061488959430958</v>
+        <v>1.067881291922823</v>
       </c>
       <c r="K3">
-        <v>1.065902109862879</v>
+        <v>1.068976653676612</v>
       </c>
       <c r="L3">
-        <v>1.051984492303004</v>
+        <v>1.06114311578966</v>
       </c>
       <c r="M3">
-        <v>1.071704234893553</v>
+        <v>1.07868232810221</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.045899539603889</v>
+        <v>1.064045805260526</v>
       </c>
       <c r="D4">
-        <v>1.058947672819562</v>
+        <v>1.067077789068305</v>
       </c>
       <c r="E4">
-        <v>1.045051203069361</v>
+        <v>1.059277950703991</v>
       </c>
       <c r="F4">
-        <v>1.065173205860079</v>
+        <v>1.076899849272988</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.070461520288425</v>
+        <v>1.057361299230851</v>
       </c>
       <c r="J4">
-        <v>1.064197793436759</v>
+        <v>1.068446298854742</v>
       </c>
       <c r="K4">
-        <v>1.068383131117941</v>
+        <v>1.069485620964163</v>
       </c>
       <c r="L4">
-        <v>1.054634683804713</v>
+        <v>1.061704438951587</v>
       </c>
       <c r="M4">
-        <v>1.074543880067006</v>
+        <v>1.079284600288028</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.047481713127566</v>
+        <v>1.064377885438887</v>
       </c>
       <c r="D5">
-        <v>1.060195883660823</v>
+        <v>1.067342260232644</v>
       </c>
       <c r="E5">
-        <v>1.046374935595852</v>
+        <v>1.059564945989194</v>
       </c>
       <c r="F5">
-        <v>1.066570604808433</v>
+        <v>1.077203201433992</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.071132977097659</v>
+        <v>1.057480761396079</v>
       </c>
       <c r="J5">
-        <v>1.065319781286864</v>
+        <v>1.068683618790739</v>
       </c>
       <c r="K5">
-        <v>1.069410516962188</v>
+        <v>1.069699361220946</v>
       </c>
       <c r="L5">
-        <v>1.055732713912407</v>
+        <v>1.061940234318301</v>
       </c>
       <c r="M5">
-        <v>1.075720735687521</v>
+        <v>1.079537647025395</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.047746095917417</v>
+        <v>1.064433638687872</v>
       </c>
       <c r="D6">
-        <v>1.060404490147436</v>
+        <v>1.067386661374285</v>
       </c>
       <c r="E6">
-        <v>1.046596186591381</v>
+        <v>1.05961313139825</v>
       </c>
       <c r="F6">
-        <v>1.066804179486092</v>
+        <v>1.077254135266193</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.071245025631749</v>
+        <v>1.057500799509336</v>
       </c>
       <c r="J6">
-        <v>1.065507202624424</v>
+        <v>1.068723453632728</v>
       </c>
       <c r="K6">
-        <v>1.069582121012006</v>
+        <v>1.069735235716427</v>
       </c>
       <c r="L6">
-        <v>1.055916152570788</v>
+        <v>1.061979814588259</v>
       </c>
       <c r="M6">
-        <v>1.075917362504024</v>
+        <v>1.079580126010292</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.045920766477086</v>
+        <v>1.064050242833342</v>
       </c>
       <c r="D7">
-        <v>1.058964417154868</v>
+        <v>1.067081323262593</v>
       </c>
       <c r="E7">
-        <v>1.045068958962807</v>
+        <v>1.059281785708123</v>
       </c>
       <c r="F7">
-        <v>1.065191949143304</v>
+        <v>1.076903902702357</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.070470538970494</v>
+        <v>1.05736289683814</v>
       </c>
       <c r="J7">
-        <v>1.064212850607008</v>
+        <v>1.068449470754976</v>
       </c>
       <c r="K7">
-        <v>1.068396919696172</v>
+        <v>1.069488477872817</v>
       </c>
       <c r="L7">
-        <v>1.05464941815656</v>
+        <v>1.061707590385917</v>
       </c>
       <c r="M7">
-        <v>1.07455967086226</v>
+        <v>1.079287982093015</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.038100213609378</v>
+        <v>1.062447049226222</v>
       </c>
       <c r="D8">
-        <v>1.052799236450331</v>
+        <v>1.065804368649618</v>
       </c>
       <c r="E8">
-        <v>1.038533982045287</v>
+        <v>1.057896465057483</v>
       </c>
       <c r="F8">
-        <v>1.058294852209672</v>
+        <v>1.075439932032036</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.06713006476301</v>
+        <v>1.056783571004551</v>
       </c>
       <c r="J8">
-        <v>1.058658118021068</v>
+        <v>1.067302490317587</v>
       </c>
       <c r="K8">
-        <v>1.063308527909883</v>
+        <v>1.068455119234661</v>
       </c>
       <c r="L8">
-        <v>1.049216107990484</v>
+        <v>1.060568165595361</v>
       </c>
       <c r="M8">
-        <v>1.068739099575184</v>
+        <v>1.078065605137442</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.023525620366307</v>
+        <v>1.059619387104342</v>
       </c>
       <c r="D9">
-        <v>1.041332768163012</v>
+        <v>1.063551541878763</v>
       </c>
       <c r="E9">
-        <v>1.026391916747727</v>
+        <v>1.05545395713438</v>
       </c>
       <c r="F9">
-        <v>1.04548606877596</v>
+        <v>1.072859940843583</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060821963931776</v>
+        <v>1.055751689355346</v>
       </c>
       <c r="J9">
-        <v>1.048274130008252</v>
+        <v>1.065274585850064</v>
       </c>
       <c r="K9">
-        <v>1.05378904498696</v>
+        <v>1.066626786943491</v>
       </c>
       <c r="L9">
-        <v>1.03907083878194</v>
+        <v>1.058554352769365</v>
       </c>
       <c r="M9">
-        <v>1.057881887087295</v>
+        <v>1.075906786186152</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.013197744482173</v>
+        <v>1.05773238043431</v>
       </c>
       <c r="D10">
-        <v>1.033228094250944</v>
+        <v>1.062047799567593</v>
       </c>
       <c r="E10">
-        <v>1.017817346798868</v>
+        <v>1.053824604729988</v>
       </c>
       <c r="F10">
-        <v>1.036444744073011</v>
+        <v>1.071139677541681</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056298781737481</v>
+        <v>1.05505630348436</v>
       </c>
       <c r="J10">
-        <v>1.040897345750001</v>
+        <v>1.063918014069803</v>
       </c>
       <c r="K10">
-        <v>1.047022248749986</v>
+        <v>1.065402842981739</v>
       </c>
       <c r="L10">
-        <v>1.031872186633187</v>
+        <v>1.057207703999754</v>
       </c>
       <c r="M10">
-        <v>1.050185744315909</v>
+        <v>1.074464251830992</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.008561061455242</v>
+        <v>1.056914805722599</v>
       </c>
       <c r="D11">
-        <v>1.029595665814765</v>
+        <v>1.06139620709749</v>
       </c>
       <c r="E11">
-        <v>1.013975974094969</v>
+        <v>1.053118819169871</v>
       </c>
       <c r="F11">
-        <v>1.032395218437218</v>
+        <v>1.070394703023538</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05425623719866</v>
+        <v>1.054753412690848</v>
       </c>
       <c r="J11">
-        <v>1.037581976773015</v>
+        <v>1.063329485991424</v>
       </c>
       <c r="K11">
-        <v>1.043980231047533</v>
+        <v>1.064871647354109</v>
       </c>
       <c r="L11">
-        <v>1.02863905073678</v>
+        <v>1.056623599350476</v>
       </c>
       <c r="M11">
-        <v>1.046731018084581</v>
+        <v>1.073838814068383</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.006812193728473</v>
+        <v>1.056611046047587</v>
       </c>
       <c r="D12">
-        <v>1.028226622454261</v>
+        <v>1.061154105837756</v>
       </c>
       <c r="E12">
-        <v>1.012528416062192</v>
+        <v>1.052856617534344</v>
       </c>
       <c r="F12">
-        <v>1.030869363028492</v>
+        <v>1.070117971298562</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053484113945852</v>
+        <v>1.054640636544558</v>
       </c>
       <c r="J12">
-        <v>1.036331021486532</v>
+        <v>1.06311071000988</v>
       </c>
       <c r="K12">
-        <v>1.04283231427653</v>
+        <v>1.064674152980021</v>
       </c>
       <c r="L12">
-        <v>1.027419464158152</v>
+        <v>1.056406485574757</v>
       </c>
       <c r="M12">
-        <v>1.045428124697023</v>
+        <v>1.07360637528494</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.007188567289477</v>
+        <v>1.056676207011924</v>
       </c>
       <c r="D13">
-        <v>1.028521205223729</v>
+        <v>1.061206040605969</v>
       </c>
       <c r="E13">
-        <v>1.012839882763606</v>
+        <v>1.05291286257694</v>
       </c>
       <c r="F13">
-        <v>1.031197670364932</v>
+        <v>1.07017733189873</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053650358748133</v>
+        <v>1.054664839600129</v>
       </c>
       <c r="J13">
-        <v>1.036600258970942</v>
+        <v>1.063157645940268</v>
       </c>
       <c r="K13">
-        <v>1.043079379575974</v>
+        <v>1.064716524572786</v>
       </c>
       <c r="L13">
-        <v>1.027681934686021</v>
+        <v>1.056453064088092</v>
       </c>
       <c r="M13">
-        <v>1.045708511202416</v>
+        <v>1.073656239799469</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.008417053498686</v>
+        <v>1.056889698419338</v>
       </c>
       <c r="D14">
-        <v>1.029482912158741</v>
+        <v>1.06137619638419</v>
       </c>
       <c r="E14">
-        <v>1.013856749317473</v>
+        <v>1.053097146355833</v>
       </c>
       <c r="F14">
-        <v>1.032269542008355</v>
+        <v>1.070371828608618</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054192692235616</v>
+        <v>1.054744096072973</v>
       </c>
       <c r="J14">
-        <v>1.037478977610731</v>
+        <v>1.0633114053872</v>
       </c>
       <c r="K14">
-        <v>1.043885717680571</v>
+        <v>1.064855326182806</v>
       </c>
       <c r="L14">
-        <v>1.028538627365127</v>
+        <v>1.056605655753454</v>
       </c>
       <c r="M14">
-        <v>1.046623729343822</v>
+        <v>1.0738196031312</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.009170381199934</v>
+        <v>1.057021227368147</v>
       </c>
       <c r="D15">
-        <v>1.030072786806997</v>
+        <v>1.061481025551552</v>
       </c>
       <c r="E15">
-        <v>1.014480487358272</v>
+        <v>1.053210684133011</v>
       </c>
       <c r="F15">
-        <v>1.032927038358882</v>
+        <v>1.07049166241196</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054525036313199</v>
+        <v>1.05479289292482</v>
       </c>
       <c r="J15">
-        <v>1.038017763686933</v>
+        <v>1.063406119021624</v>
       </c>
       <c r="K15">
-        <v>1.044380110709958</v>
+        <v>1.064940821923644</v>
       </c>
       <c r="L15">
-        <v>1.029063953486399</v>
+        <v>1.056699652419677</v>
       </c>
       <c r="M15">
-        <v>1.047184980421021</v>
+        <v>1.073920240280627</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.013501842262588</v>
+        <v>1.057786629659598</v>
       </c>
       <c r="D16">
-        <v>1.033466464970327</v>
+        <v>1.062091033760145</v>
       </c>
       <c r="E16">
-        <v>1.018069462372384</v>
+        <v>1.053871439668225</v>
       </c>
       <c r="F16">
-        <v>1.03671054072469</v>
+        <v>1.071189117029986</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056432501626202</v>
+        <v>1.055076367676162</v>
       </c>
       <c r="J16">
-        <v>1.041114716867833</v>
+        <v>1.063957048927608</v>
       </c>
       <c r="K16">
-        <v>1.047221682562562</v>
+        <v>1.065438070866302</v>
       </c>
       <c r="L16">
-        <v>1.032084212435648</v>
+        <v>1.057246447968113</v>
       </c>
       <c r="M16">
-        <v>1.050412340375483</v>
+        <v>1.074505742861162</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.016173515696749</v>
+        <v>1.058266613672786</v>
       </c>
       <c r="D17">
-        <v>1.035561398555611</v>
+        <v>1.062473551099139</v>
       </c>
       <c r="E17">
-        <v>1.020285379827449</v>
+        <v>1.054285842018204</v>
       </c>
       <c r="F17">
-        <v>1.039046812945978</v>
+        <v>1.071626586869913</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057605970196337</v>
+        <v>1.055253705549756</v>
       </c>
       <c r="J17">
-        <v>1.043024050296581</v>
+        <v>1.06430233073364</v>
       </c>
       <c r="K17">
-        <v>1.048973370857337</v>
+        <v>1.065749654421702</v>
       </c>
       <c r="L17">
-        <v>1.033946841810995</v>
+        <v>1.057589170401001</v>
       </c>
       <c r="M17">
-        <v>1.052403177946407</v>
+        <v>1.074872794991483</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.017716106832915</v>
+        <v>1.058546533286786</v>
       </c>
       <c r="D18">
-        <v>1.036771560125299</v>
+        <v>1.062696622497074</v>
       </c>
       <c r="E18">
-        <v>1.021565586725484</v>
+        <v>1.054527530418179</v>
       </c>
       <c r="F18">
-        <v>1.040396642687657</v>
+        <v>1.071881747135025</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.058282391039014</v>
+        <v>1.055356971655699</v>
       </c>
       <c r="J18">
-        <v>1.044126133149439</v>
+        <v>1.064503619476106</v>
       </c>
       <c r="K18">
-        <v>1.049984383217405</v>
+        <v>1.065931278239379</v>
       </c>
       <c r="L18">
-        <v>1.035022170937154</v>
+        <v>1.057788978521527</v>
       </c>
       <c r="M18">
-        <v>1.053552698195646</v>
+        <v>1.075086812156541</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.018239472515739</v>
+        <v>1.058641970759215</v>
       </c>
       <c r="D19">
-        <v>1.037182234024612</v>
+        <v>1.062772676573173</v>
       </c>
       <c r="E19">
-        <v>1.022000057967991</v>
+        <v>1.054609935643106</v>
       </c>
       <c r="F19">
-        <v>1.040854757546675</v>
+        <v>1.071968748799833</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.058511692225311</v>
+        <v>1.055392153571449</v>
       </c>
       <c r="J19">
-        <v>1.044499984257071</v>
+        <v>1.064572235416532</v>
       </c>
       <c r="K19">
-        <v>1.050327327720028</v>
+        <v>1.065993187362879</v>
       </c>
       <c r="L19">
-        <v>1.035386980838029</v>
+        <v>1.057857091676989</v>
       </c>
       <c r="M19">
-        <v>1.053942707228438</v>
+        <v>1.075159773272205</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.015888512465992</v>
+        <v>1.058215120806345</v>
       </c>
       <c r="D20">
-        <v>1.035337859309537</v>
+        <v>1.062432515221887</v>
       </c>
       <c r="E20">
-        <v>1.020048914761568</v>
+        <v>1.054241383216015</v>
       </c>
       <c r="F20">
-        <v>1.038797495241696</v>
+        <v>1.071579651387315</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.057480905741994</v>
+        <v>1.055234696680411</v>
       </c>
       <c r="J20">
-        <v>1.042820405452941</v>
+        <v>1.064265296477692</v>
       </c>
       <c r="K20">
-        <v>1.04878654787755</v>
+        <v>1.065716236629762</v>
       </c>
       <c r="L20">
-        <v>1.033748157003557</v>
+        <v>1.057552409477065</v>
       </c>
       <c r="M20">
-        <v>1.052190799186681</v>
+        <v>1.074833421865235</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.008056045020241</v>
+        <v>1.056826832640962</v>
       </c>
       <c r="D21">
-        <v>1.029200271111393</v>
+        <v>1.061326091714134</v>
       </c>
       <c r="E21">
-        <v>1.013557890766023</v>
+        <v>1.053042880533349</v>
       </c>
       <c r="F21">
-        <v>1.031954513496856</v>
+        <v>1.070314554602924</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05403336625023</v>
+        <v>1.054720764451225</v>
       </c>
       <c r="J21">
-        <v>1.037220765469022</v>
+        <v>1.063266131780921</v>
       </c>
       <c r="K21">
-        <v>1.043648777284295</v>
+        <v>1.064814457677178</v>
       </c>
       <c r="L21">
-        <v>1.028286878090469</v>
+        <v>1.056560725500279</v>
       </c>
       <c r="M21">
-        <v>1.046354773938774</v>
+        <v>1.073771500119099</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.002976516799524</v>
+        <v>1.05595351959925</v>
       </c>
       <c r="D22">
-        <v>1.025226037725017</v>
+        <v>1.060630029005609</v>
       </c>
       <c r="E22">
-        <v>1.009356165020801</v>
+        <v>1.052289093692907</v>
       </c>
       <c r="F22">
-        <v>1.027525786531955</v>
+        <v>1.069519050340349</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051787588885166</v>
+        <v>1.054396077914056</v>
       </c>
       <c r="J22">
-        <v>1.033586621056943</v>
+        <v>1.062636930294857</v>
       </c>
       <c r="K22">
-        <v>1.0403137959556</v>
+        <v>1.064246404337744</v>
       </c>
       <c r="L22">
-        <v>1.024744525440886</v>
+        <v>1.055936338276087</v>
       </c>
       <c r="M22">
-        <v>1.042570987517565</v>
+        <v>1.073103113341124</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.005684629147467</v>
+        <v>1.056416522071331</v>
       </c>
       <c r="D23">
-        <v>1.027344253676125</v>
+        <v>1.060999064372942</v>
       </c>
       <c r="E23">
-        <v>1.011595507937272</v>
+        <v>1.052688713706647</v>
       </c>
       <c r="F23">
-        <v>1.029886034325638</v>
+        <v>1.069940771058407</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052985821129324</v>
+        <v>1.0545683482973</v>
       </c>
       <c r="J23">
-        <v>1.035524360614704</v>
+        <v>1.062970576013988</v>
       </c>
       <c r="K23">
-        <v>1.042092069759029</v>
+        <v>1.064547641970695</v>
       </c>
       <c r="L23">
-        <v>1.026633128767047</v>
+        <v>1.056267421320325</v>
       </c>
       <c r="M23">
-        <v>1.044588156150583</v>
+        <v>1.07345750604917</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.016017341695102</v>
+        <v>1.058238388361249</v>
       </c>
       <c r="D24">
-        <v>1.035438903372754</v>
+        <v>1.062451057706023</v>
       </c>
       <c r="E24">
-        <v>1.020155801055141</v>
+        <v>1.054261472313831</v>
       </c>
       <c r="F24">
-        <v>1.038910190870393</v>
+        <v>1.07160085953792</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057537441782149</v>
+        <v>1.055243286501953</v>
       </c>
       <c r="J24">
-        <v>1.042912459542241</v>
+        <v>1.064282030998488</v>
       </c>
       <c r="K24">
-        <v>1.048870998176093</v>
+        <v>1.065731337054903</v>
       </c>
       <c r="L24">
-        <v>1.033837968362351</v>
+        <v>1.057569020453152</v>
       </c>
       <c r="M24">
-        <v>1.052286800072833</v>
+        <v>1.074851213127678</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.027395158173465</v>
+        <v>1.060350730625428</v>
       </c>
       <c r="D25">
-        <v>1.044373932667388</v>
+        <v>1.06413427442144</v>
       </c>
       <c r="E25">
-        <v>1.029610909959398</v>
+        <v>1.056085577139642</v>
       </c>
       <c r="F25">
-        <v>1.04888111261574</v>
+        <v>1.073526972291281</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.062506081105338</v>
+        <v>1.056019767902092</v>
       </c>
       <c r="J25">
-        <v>1.051034475910187</v>
+        <v>1.065799659064444</v>
       </c>
       <c r="K25">
-        <v>1.056320351074897</v>
+        <v>1.067100340975131</v>
       </c>
       <c r="L25">
-        <v>1.041766309152586</v>
+        <v>1.059075690213774</v>
       </c>
       <c r="M25">
-        <v>1.060765206133704</v>
+        <v>1.076465472874762</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_45/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.0620341478923</v>
+        <v>1.036035643358775</v>
       </c>
       <c r="D2">
-        <v>1.06547544941012</v>
+        <v>1.051173039120533</v>
       </c>
       <c r="E2">
-        <v>1.057539734874008</v>
+        <v>1.036811072013203</v>
       </c>
       <c r="F2">
-        <v>1.075063029343669</v>
+        <v>1.056476878629414</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056633681462053</v>
+        <v>1.066242625140479</v>
       </c>
       <c r="J2">
-        <v>1.067006753425094</v>
+        <v>1.05718947739631</v>
       </c>
       <c r="K2">
-        <v>1.068188589065256</v>
+        <v>1.06196267829741</v>
       </c>
       <c r="L2">
-        <v>1.060274426405623</v>
+        <v>1.047780328146161</v>
       </c>
       <c r="M2">
-        <v>1.077750589779761</v>
+        <v>1.067201720121679</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.063255706570799</v>
+        <v>1.042083299105727</v>
       </c>
       <c r="D3">
-        <v>1.066448501941961</v>
+        <v>1.055938231326287</v>
       </c>
       <c r="E3">
-        <v>1.058595181580479</v>
+        <v>1.041860610558643</v>
       </c>
       <c r="F3">
-        <v>1.076178254674246</v>
+        <v>1.061805502489141</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057076319578798</v>
+        <v>1.068835741353032</v>
       </c>
       <c r="J3">
-        <v>1.067881291922823</v>
+        <v>1.061488959430958</v>
       </c>
       <c r="K3">
-        <v>1.068976653676612</v>
+        <v>1.065902109862878</v>
       </c>
       <c r="L3">
-        <v>1.06114311578966</v>
+        <v>1.051984492303003</v>
       </c>
       <c r="M3">
-        <v>1.07868232810221</v>
+        <v>1.071704234893552</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.064045805260526</v>
+        <v>1.045899539603889</v>
       </c>
       <c r="D4">
-        <v>1.067077789068305</v>
+        <v>1.058947672819561</v>
       </c>
       <c r="E4">
-        <v>1.059277950703991</v>
+        <v>1.04505120306936</v>
       </c>
       <c r="F4">
-        <v>1.076899849272988</v>
+        <v>1.065173205860078</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057361299230851</v>
+        <v>1.070461520288425</v>
       </c>
       <c r="J4">
-        <v>1.068446298854742</v>
+        <v>1.064197793436758</v>
       </c>
       <c r="K4">
-        <v>1.069485620964163</v>
+        <v>1.068383131117941</v>
       </c>
       <c r="L4">
-        <v>1.061704438951587</v>
+        <v>1.054634683804712</v>
       </c>
       <c r="M4">
-        <v>1.079284600288028</v>
+        <v>1.074543880067005</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.064377885438887</v>
+        <v>1.047481713127568</v>
       </c>
       <c r="D5">
-        <v>1.067342260232644</v>
+        <v>1.060195883660825</v>
       </c>
       <c r="E5">
-        <v>1.059564945989194</v>
+        <v>1.046374935595854</v>
       </c>
       <c r="F5">
-        <v>1.077203201433992</v>
+        <v>1.066570604808436</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057480761396079</v>
+        <v>1.071132977097661</v>
       </c>
       <c r="J5">
-        <v>1.068683618790739</v>
+        <v>1.065319781286866</v>
       </c>
       <c r="K5">
-        <v>1.069699361220946</v>
+        <v>1.069410516962191</v>
       </c>
       <c r="L5">
-        <v>1.061940234318301</v>
+        <v>1.055732713912408</v>
       </c>
       <c r="M5">
-        <v>1.079537647025395</v>
+        <v>1.075720735687523</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.064433638687872</v>
+        <v>1.047746095917416</v>
       </c>
       <c r="D6">
-        <v>1.067386661374285</v>
+        <v>1.060404490147435</v>
       </c>
       <c r="E6">
-        <v>1.05961313139825</v>
+        <v>1.046596186591379</v>
       </c>
       <c r="F6">
-        <v>1.077254135266193</v>
+        <v>1.066804179486091</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057500799509336</v>
+        <v>1.071245025631748</v>
       </c>
       <c r="J6">
-        <v>1.068723453632728</v>
+        <v>1.065507202624423</v>
       </c>
       <c r="K6">
-        <v>1.069735235716427</v>
+        <v>1.069582121012005</v>
       </c>
       <c r="L6">
-        <v>1.061979814588259</v>
+        <v>1.055916152570787</v>
       </c>
       <c r="M6">
-        <v>1.079580126010292</v>
+        <v>1.075917362504023</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.064050242833342</v>
+        <v>1.045920766477085</v>
       </c>
       <c r="D7">
-        <v>1.067081323262593</v>
+        <v>1.058964417154866</v>
       </c>
       <c r="E7">
-        <v>1.059281785708123</v>
+        <v>1.045068958962805</v>
       </c>
       <c r="F7">
-        <v>1.076903902702357</v>
+        <v>1.065191949143303</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05736289683814</v>
+        <v>1.070470538970494</v>
       </c>
       <c r="J7">
-        <v>1.068449470754976</v>
+        <v>1.064212850607007</v>
       </c>
       <c r="K7">
-        <v>1.069488477872817</v>
+        <v>1.06839691969617</v>
       </c>
       <c r="L7">
-        <v>1.061707590385917</v>
+        <v>1.054649418156559</v>
       </c>
       <c r="M7">
-        <v>1.079287982093015</v>
+        <v>1.074559670862259</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.062447049226222</v>
+        <v>1.038100213609379</v>
       </c>
       <c r="D8">
-        <v>1.065804368649618</v>
+        <v>1.052799236450332</v>
       </c>
       <c r="E8">
-        <v>1.057896465057483</v>
+        <v>1.038533982045287</v>
       </c>
       <c r="F8">
-        <v>1.075439932032036</v>
+        <v>1.058294852209674</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056783571004551</v>
+        <v>1.067130064763011</v>
       </c>
       <c r="J8">
-        <v>1.067302490317587</v>
+        <v>1.058658118021069</v>
       </c>
       <c r="K8">
-        <v>1.068455119234661</v>
+        <v>1.063308527909884</v>
       </c>
       <c r="L8">
-        <v>1.060568165595361</v>
+        <v>1.049216107990485</v>
       </c>
       <c r="M8">
-        <v>1.078065605137442</v>
+        <v>1.068739099575185</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.059619387104342</v>
+        <v>1.023525620366306</v>
       </c>
       <c r="D9">
-        <v>1.063551541878763</v>
+        <v>1.041332768163011</v>
       </c>
       <c r="E9">
-        <v>1.05545395713438</v>
+        <v>1.026391916747725</v>
       </c>
       <c r="F9">
-        <v>1.072859940843583</v>
+        <v>1.045486068775959</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055751689355346</v>
+        <v>1.060821963931776</v>
       </c>
       <c r="J9">
-        <v>1.065274585850064</v>
+        <v>1.04827413000825</v>
       </c>
       <c r="K9">
-        <v>1.066626786943491</v>
+        <v>1.05378904498696</v>
       </c>
       <c r="L9">
-        <v>1.058554352769365</v>
+        <v>1.039070838781938</v>
       </c>
       <c r="M9">
-        <v>1.075906786186152</v>
+        <v>1.057881887087294</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.05773238043431</v>
+        <v>1.013197744482172</v>
       </c>
       <c r="D10">
-        <v>1.062047799567593</v>
+        <v>1.033228094250942</v>
       </c>
       <c r="E10">
-        <v>1.053824604729988</v>
+        <v>1.017817346798866</v>
       </c>
       <c r="F10">
-        <v>1.071139677541681</v>
+        <v>1.03644474407301</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05505630348436</v>
+        <v>1.05629878173748</v>
       </c>
       <c r="J10">
-        <v>1.063918014069803</v>
+        <v>1.04089734575</v>
       </c>
       <c r="K10">
-        <v>1.065402842981739</v>
+        <v>1.047022248749985</v>
       </c>
       <c r="L10">
-        <v>1.057207703999754</v>
+        <v>1.031872186633186</v>
       </c>
       <c r="M10">
-        <v>1.074464251830992</v>
+        <v>1.050185744315908</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.056914805722599</v>
+        <v>1.008561061455242</v>
       </c>
       <c r="D11">
-        <v>1.06139620709749</v>
+        <v>1.029595665814765</v>
       </c>
       <c r="E11">
-        <v>1.053118819169871</v>
+        <v>1.013975974094969</v>
       </c>
       <c r="F11">
-        <v>1.070394703023538</v>
+        <v>1.032395218437218</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054753412690848</v>
+        <v>1.05425623719866</v>
       </c>
       <c r="J11">
-        <v>1.063329485991424</v>
+        <v>1.037581976773015</v>
       </c>
       <c r="K11">
-        <v>1.064871647354109</v>
+        <v>1.043980231047533</v>
       </c>
       <c r="L11">
-        <v>1.056623599350476</v>
+        <v>1.028639050736781</v>
       </c>
       <c r="M11">
-        <v>1.073838814068383</v>
+        <v>1.046731018084581</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.056611046047587</v>
+        <v>1.006812193728475</v>
       </c>
       <c r="D12">
-        <v>1.061154105837756</v>
+        <v>1.028226622454264</v>
       </c>
       <c r="E12">
-        <v>1.052856617534344</v>
+        <v>1.012528416062194</v>
       </c>
       <c r="F12">
-        <v>1.070117971298562</v>
+        <v>1.030869363028495</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054640636544558</v>
+        <v>1.053484113945853</v>
       </c>
       <c r="J12">
-        <v>1.06311071000988</v>
+        <v>1.036331021486534</v>
       </c>
       <c r="K12">
-        <v>1.064674152980021</v>
+        <v>1.042832314276532</v>
       </c>
       <c r="L12">
-        <v>1.056406485574757</v>
+        <v>1.027419464158154</v>
       </c>
       <c r="M12">
-        <v>1.07360637528494</v>
+        <v>1.045428124697025</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.056676207011924</v>
+        <v>1.007188567289476</v>
       </c>
       <c r="D13">
-        <v>1.061206040605969</v>
+        <v>1.028521205223728</v>
       </c>
       <c r="E13">
-        <v>1.05291286257694</v>
+        <v>1.012839882763604</v>
       </c>
       <c r="F13">
-        <v>1.07017733189873</v>
+        <v>1.031197670364931</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054664839600129</v>
+        <v>1.053650358748132</v>
       </c>
       <c r="J13">
-        <v>1.063157645940268</v>
+        <v>1.03660025897094</v>
       </c>
       <c r="K13">
-        <v>1.064716524572786</v>
+        <v>1.043079379575973</v>
       </c>
       <c r="L13">
-        <v>1.056453064088092</v>
+        <v>1.027681934686019</v>
       </c>
       <c r="M13">
-        <v>1.073656239799469</v>
+        <v>1.045708511202415</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.056889698419338</v>
+        <v>1.008417053498686</v>
       </c>
       <c r="D14">
-        <v>1.06137619638419</v>
+        <v>1.029482912158742</v>
       </c>
       <c r="E14">
-        <v>1.053097146355833</v>
+        <v>1.013856749317473</v>
       </c>
       <c r="F14">
-        <v>1.070371828608618</v>
+        <v>1.032269542008356</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054744096072973</v>
+        <v>1.054192692235617</v>
       </c>
       <c r="J14">
-        <v>1.0633114053872</v>
+        <v>1.037478977610732</v>
       </c>
       <c r="K14">
-        <v>1.064855326182806</v>
+        <v>1.043885717680572</v>
       </c>
       <c r="L14">
-        <v>1.056605655753454</v>
+        <v>1.028538627365127</v>
       </c>
       <c r="M14">
-        <v>1.0738196031312</v>
+        <v>1.046623729343823</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.057021227368147</v>
+        <v>1.009170381199932</v>
       </c>
       <c r="D15">
-        <v>1.061481025551552</v>
+        <v>1.030072786806994</v>
       </c>
       <c r="E15">
-        <v>1.053210684133011</v>
+        <v>1.014480487358269</v>
       </c>
       <c r="F15">
-        <v>1.07049166241196</v>
+        <v>1.032927038358879</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.05479289292482</v>
+        <v>1.054525036313197</v>
       </c>
       <c r="J15">
-        <v>1.063406119021624</v>
+        <v>1.03801776368693</v>
       </c>
       <c r="K15">
-        <v>1.064940821923644</v>
+        <v>1.044380110709956</v>
       </c>
       <c r="L15">
-        <v>1.056699652419677</v>
+        <v>1.029063953486397</v>
       </c>
       <c r="M15">
-        <v>1.073920240280627</v>
+        <v>1.047184980421019</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.057786629659598</v>
+        <v>1.013501842262589</v>
       </c>
       <c r="D16">
-        <v>1.062091033760145</v>
+        <v>1.033466464970327</v>
       </c>
       <c r="E16">
-        <v>1.053871439668225</v>
+        <v>1.018069462372384</v>
       </c>
       <c r="F16">
-        <v>1.071189117029986</v>
+        <v>1.03671054072469</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055076367676162</v>
+        <v>1.056432501626202</v>
       </c>
       <c r="J16">
-        <v>1.063957048927608</v>
+        <v>1.041114716867833</v>
       </c>
       <c r="K16">
-        <v>1.065438070866302</v>
+        <v>1.047221682562563</v>
       </c>
       <c r="L16">
-        <v>1.057246447968113</v>
+        <v>1.032084212435648</v>
       </c>
       <c r="M16">
-        <v>1.074505742861162</v>
+        <v>1.050412340375484</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.058266613672786</v>
+        <v>1.016173515696749</v>
       </c>
       <c r="D17">
-        <v>1.062473551099139</v>
+        <v>1.035561398555611</v>
       </c>
       <c r="E17">
-        <v>1.054285842018204</v>
+        <v>1.020285379827449</v>
       </c>
       <c r="F17">
-        <v>1.071626586869913</v>
+        <v>1.039046812945978</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055253705549756</v>
+        <v>1.057605970196337</v>
       </c>
       <c r="J17">
-        <v>1.06430233073364</v>
+        <v>1.04302405029658</v>
       </c>
       <c r="K17">
-        <v>1.065749654421702</v>
+        <v>1.048973370857336</v>
       </c>
       <c r="L17">
-        <v>1.057589170401001</v>
+        <v>1.033946841810995</v>
       </c>
       <c r="M17">
-        <v>1.074872794991483</v>
+        <v>1.052403177946407</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.058546533286786</v>
+        <v>1.017716106832914</v>
       </c>
       <c r="D18">
-        <v>1.062696622497074</v>
+        <v>1.036771560125298</v>
       </c>
       <c r="E18">
-        <v>1.054527530418179</v>
+        <v>1.021565586725483</v>
       </c>
       <c r="F18">
-        <v>1.071881747135025</v>
+        <v>1.040396642687656</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055356971655699</v>
+        <v>1.058282391039014</v>
       </c>
       <c r="J18">
-        <v>1.064503619476106</v>
+        <v>1.044126133149438</v>
       </c>
       <c r="K18">
-        <v>1.065931278239379</v>
+        <v>1.049984383217405</v>
       </c>
       <c r="L18">
-        <v>1.057788978521527</v>
+        <v>1.035022170937154</v>
       </c>
       <c r="M18">
-        <v>1.075086812156541</v>
+        <v>1.053552698195645</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.058641970759215</v>
+        <v>1.018239472515739</v>
       </c>
       <c r="D19">
-        <v>1.062772676573173</v>
+        <v>1.037182234024613</v>
       </c>
       <c r="E19">
-        <v>1.054609935643106</v>
+        <v>1.02200005796799</v>
       </c>
       <c r="F19">
-        <v>1.071968748799833</v>
+        <v>1.040854757546675</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055392153571449</v>
+        <v>1.058511692225311</v>
       </c>
       <c r="J19">
-        <v>1.064572235416532</v>
+        <v>1.044499984257071</v>
       </c>
       <c r="K19">
-        <v>1.065993187362879</v>
+        <v>1.050327327720028</v>
       </c>
       <c r="L19">
-        <v>1.057857091676989</v>
+        <v>1.035386980838029</v>
       </c>
       <c r="M19">
-        <v>1.075159773272205</v>
+        <v>1.053942707228438</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.058215120806345</v>
+        <v>1.015888512465992</v>
       </c>
       <c r="D20">
-        <v>1.062432515221887</v>
+        <v>1.035337859309537</v>
       </c>
       <c r="E20">
-        <v>1.054241383216015</v>
+        <v>1.020048914761568</v>
       </c>
       <c r="F20">
-        <v>1.071579651387315</v>
+        <v>1.038797495241696</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055234696680411</v>
+        <v>1.057480905741994</v>
       </c>
       <c r="J20">
-        <v>1.064265296477692</v>
+        <v>1.042820405452941</v>
       </c>
       <c r="K20">
-        <v>1.065716236629762</v>
+        <v>1.04878654787755</v>
       </c>
       <c r="L20">
-        <v>1.057552409477065</v>
+        <v>1.033748157003558</v>
       </c>
       <c r="M20">
-        <v>1.074833421865235</v>
+        <v>1.052190799186681</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.056826832640962</v>
+        <v>1.008056045020242</v>
       </c>
       <c r="D21">
-        <v>1.061326091714134</v>
+        <v>1.029200271111393</v>
       </c>
       <c r="E21">
-        <v>1.053042880533349</v>
+        <v>1.013557890766023</v>
       </c>
       <c r="F21">
-        <v>1.070314554602924</v>
+        <v>1.031954513496856</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054720764451225</v>
+        <v>1.05403336625023</v>
       </c>
       <c r="J21">
-        <v>1.063266131780921</v>
+        <v>1.037220765469022</v>
       </c>
       <c r="K21">
-        <v>1.064814457677178</v>
+        <v>1.043648777284295</v>
       </c>
       <c r="L21">
-        <v>1.056560725500279</v>
+        <v>1.028286878090469</v>
       </c>
       <c r="M21">
-        <v>1.073771500119099</v>
+        <v>1.046354773938774</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.05595351959925</v>
+        <v>1.002976516799525</v>
       </c>
       <c r="D22">
-        <v>1.060630029005609</v>
+        <v>1.025226037725018</v>
       </c>
       <c r="E22">
-        <v>1.052289093692907</v>
+        <v>1.009356165020801</v>
       </c>
       <c r="F22">
-        <v>1.069519050340349</v>
+        <v>1.027525786531956</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054396077914056</v>
+        <v>1.051787588885167</v>
       </c>
       <c r="J22">
-        <v>1.062636930294857</v>
+        <v>1.033586621056943</v>
       </c>
       <c r="K22">
-        <v>1.064246404337744</v>
+        <v>1.040313795955601</v>
       </c>
       <c r="L22">
-        <v>1.055936338276087</v>
+        <v>1.024744525440886</v>
       </c>
       <c r="M22">
-        <v>1.073103113341124</v>
+        <v>1.042570987517566</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>1.056416522071331</v>
+        <v>1.005684629147466</v>
       </c>
       <c r="D23">
-        <v>1.060999064372942</v>
+        <v>1.027344253676123</v>
       </c>
       <c r="E23">
-        <v>1.052688713706647</v>
+        <v>1.011595507937271</v>
       </c>
       <c r="F23">
-        <v>1.069940771058407</v>
+        <v>1.029886034325637</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0545683482973</v>
+        <v>1.052985821129323</v>
       </c>
       <c r="J23">
-        <v>1.062970576013988</v>
+        <v>1.035524360614703</v>
       </c>
       <c r="K23">
-        <v>1.064547641970695</v>
+        <v>1.042092069759027</v>
       </c>
       <c r="L23">
-        <v>1.056267421320325</v>
+        <v>1.026633128767046</v>
       </c>
       <c r="M23">
-        <v>1.07345750604917</v>
+        <v>1.044588156150582</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.058238388361249</v>
+        <v>1.016017341695101</v>
       </c>
       <c r="D24">
-        <v>1.062451057706023</v>
+        <v>1.035438903372752</v>
       </c>
       <c r="E24">
-        <v>1.054261472313831</v>
+        <v>1.020155801055139</v>
       </c>
       <c r="F24">
-        <v>1.07160085953792</v>
+        <v>1.038910190870392</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055243286501953</v>
+        <v>1.057537441782149</v>
       </c>
       <c r="J24">
-        <v>1.064282030998488</v>
+        <v>1.04291245954224</v>
       </c>
       <c r="K24">
-        <v>1.065731337054903</v>
+        <v>1.048870998176092</v>
       </c>
       <c r="L24">
-        <v>1.057569020453152</v>
+        <v>1.03383796836235</v>
       </c>
       <c r="M24">
-        <v>1.074851213127678</v>
+        <v>1.052286800072832</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.060350730625428</v>
+        <v>1.027395158173465</v>
       </c>
       <c r="D25">
-        <v>1.06413427442144</v>
+        <v>1.044373932667388</v>
       </c>
       <c r="E25">
-        <v>1.056085577139642</v>
+        <v>1.029610909959398</v>
       </c>
       <c r="F25">
-        <v>1.073526972291281</v>
+        <v>1.04888111261574</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056019767902092</v>
+        <v>1.062506081105338</v>
       </c>
       <c r="J25">
-        <v>1.065799659064444</v>
+        <v>1.051034475910187</v>
       </c>
       <c r="K25">
-        <v>1.067100340975131</v>
+        <v>1.056320351074898</v>
       </c>
       <c r="L25">
-        <v>1.059075690213774</v>
+        <v>1.041766309152587</v>
       </c>
       <c r="M25">
-        <v>1.076465472874762</v>
+        <v>1.060765206133704</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_45/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036035643358775</v>
+        <v>1.004307861633173</v>
       </c>
       <c r="D2">
-        <v>1.051173039120533</v>
+        <v>1.023591879638442</v>
       </c>
       <c r="E2">
-        <v>1.036811072013203</v>
+        <v>1.018786403766683</v>
       </c>
       <c r="F2">
-        <v>1.056476878629414</v>
+        <v>1.026823529733153</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.066242625140479</v>
+        <v>1.048489986666958</v>
       </c>
       <c r="J2">
-        <v>1.05718947739631</v>
+        <v>1.026360484332372</v>
       </c>
       <c r="K2">
-        <v>1.06196267829741</v>
+        <v>1.034732042327571</v>
       </c>
       <c r="L2">
-        <v>1.047780328146161</v>
+        <v>1.029990074249097</v>
       </c>
       <c r="M2">
-        <v>1.067201720121679</v>
+        <v>1.037921402568811</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.03858463434832</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.035628804244352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042083299105727</v>
+        <v>1.008266934063592</v>
       </c>
       <c r="D3">
-        <v>1.055938231326287</v>
+        <v>1.026215744590286</v>
       </c>
       <c r="E3">
-        <v>1.041860610558643</v>
+        <v>1.021910657886858</v>
       </c>
       <c r="F3">
-        <v>1.061805502489141</v>
+        <v>1.029881046804259</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.068835741353032</v>
+        <v>1.04932804674894</v>
       </c>
       <c r="J3">
-        <v>1.061488959430958</v>
+        <v>1.028534743322889</v>
       </c>
       <c r="K3">
-        <v>1.065902109862878</v>
+        <v>1.036523828194142</v>
       </c>
       <c r="L3">
-        <v>1.051984492303003</v>
+        <v>1.032270658106627</v>
       </c>
       <c r="M3">
-        <v>1.071704234893552</v>
+        <v>1.040145353230643</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.040344744719621</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036893088249317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045899539603889</v>
+        <v>1.010780485871019</v>
       </c>
       <c r="D4">
-        <v>1.058947672819561</v>
+        <v>1.027882067248273</v>
       </c>
       <c r="E4">
-        <v>1.04505120306936</v>
+        <v>1.023900529086162</v>
       </c>
       <c r="F4">
-        <v>1.065173205860078</v>
+        <v>1.031831028550608</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.070461520288425</v>
+        <v>1.049845308548319</v>
       </c>
       <c r="J4">
-        <v>1.064197793436758</v>
+        <v>1.029912388800658</v>
       </c>
       <c r="K4">
-        <v>1.068383131117941</v>
+        <v>1.037655235101786</v>
       </c>
       <c r="L4">
-        <v>1.054634683804712</v>
+        <v>1.033718805862513</v>
       </c>
       <c r="M4">
-        <v>1.074543880067005</v>
+        <v>1.04155987983635</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.041464247059299</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037693994785421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047481713127568</v>
+        <v>1.011828535049262</v>
       </c>
       <c r="D5">
-        <v>1.060195883660825</v>
+        <v>1.028578671561409</v>
       </c>
       <c r="E5">
-        <v>1.046374935595854</v>
+        <v>1.024731908037708</v>
       </c>
       <c r="F5">
-        <v>1.066570604808436</v>
+        <v>1.032645937156423</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.071132977097661</v>
+        <v>1.050058606483139</v>
       </c>
       <c r="J5">
-        <v>1.065319781286866</v>
+        <v>1.030487208031872</v>
       </c>
       <c r="K5">
-        <v>1.069410516962191</v>
+        <v>1.038127721745271</v>
       </c>
       <c r="L5">
-        <v>1.055732713912408</v>
+        <v>1.03432337602282</v>
       </c>
       <c r="M5">
-        <v>1.075720735687523</v>
+        <v>1.042150559905992</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.041931729955215</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.038035274430613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047746095917416</v>
+        <v>1.012006955817038</v>
       </c>
       <c r="D6">
-        <v>1.060404490147435</v>
+        <v>1.028699392112952</v>
       </c>
       <c r="E6">
-        <v>1.046596186591379</v>
+        <v>1.024873769787691</v>
       </c>
       <c r="F6">
-        <v>1.066804179486091</v>
+        <v>1.032784502922228</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.071245025631748</v>
+        <v>1.050096204569008</v>
       </c>
       <c r="J6">
-        <v>1.065507202624423</v>
+        <v>1.03058634853711</v>
       </c>
       <c r="K6">
-        <v>1.069582121012005</v>
+        <v>1.038210812192547</v>
       </c>
       <c r="L6">
-        <v>1.055916152570787</v>
+        <v>1.034427180745293</v>
       </c>
       <c r="M6">
-        <v>1.075917362504023</v>
+        <v>1.04225150519373</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.042011621219595</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.038102793898465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045920766477085</v>
+        <v>1.010802807178017</v>
       </c>
       <c r="D7">
-        <v>1.058964417154866</v>
+        <v>1.027902560186607</v>
       </c>
       <c r="E7">
-        <v>1.045068958962805</v>
+        <v>1.02391888643581</v>
       </c>
       <c r="F7">
-        <v>1.065191949143303</v>
+        <v>1.031847619422857</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.070470538970494</v>
+        <v>1.049853855485049</v>
       </c>
       <c r="J7">
-        <v>1.064212850607007</v>
+        <v>1.029928164318366</v>
       </c>
       <c r="K7">
-        <v>1.06839691969617</v>
+        <v>1.037672604521917</v>
       </c>
       <c r="L7">
-        <v>1.054649418156559</v>
+        <v>1.03373404671787</v>
       </c>
       <c r="M7">
-        <v>1.074559670862259</v>
+        <v>1.041573407706066</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.041474953446785</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037726443762654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038100213609379</v>
+        <v>1.005666161195583</v>
       </c>
       <c r="D8">
-        <v>1.052799236450332</v>
+        <v>1.024498770619729</v>
       </c>
       <c r="E8">
-        <v>1.038533982045287</v>
+        <v>1.019857836691677</v>
       </c>
       <c r="F8">
-        <v>1.058294852209674</v>
+        <v>1.027869807580042</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.067130064763011</v>
+        <v>1.048785304839893</v>
       </c>
       <c r="J8">
-        <v>1.058658118021069</v>
+        <v>1.027111267260285</v>
       </c>
       <c r="K8">
-        <v>1.063308527909884</v>
+        <v>1.035356809037556</v>
       </c>
       <c r="L8">
-        <v>1.049216107990485</v>
+        <v>1.030775375011906</v>
       </c>
       <c r="M8">
-        <v>1.068739099575185</v>
+        <v>1.038685047534293</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.039189009494227</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.036093559785993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023525620366306</v>
+        <v>0.9962157826697957</v>
       </c>
       <c r="D9">
-        <v>1.041332768163011</v>
+        <v>1.018233980824613</v>
       </c>
       <c r="E9">
-        <v>1.026391916747725</v>
+        <v>1.012437243490375</v>
       </c>
       <c r="F9">
-        <v>1.045486068775959</v>
+        <v>1.020624343565943</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060821963931776</v>
+        <v>1.046698250392967</v>
       </c>
       <c r="J9">
-        <v>1.04827413000825</v>
+        <v>1.021902882771385</v>
       </c>
       <c r="K9">
-        <v>1.05378904498696</v>
+        <v>1.031037992723532</v>
       </c>
       <c r="L9">
-        <v>1.039070838781938</v>
+        <v>1.025331707194663</v>
       </c>
       <c r="M9">
-        <v>1.057881887087294</v>
+        <v>1.03339143839911</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.034999452855094</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.033036651971625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.013197744482172</v>
+        <v>0.9897111479577719</v>
       </c>
       <c r="D10">
-        <v>1.033228094250942</v>
+        <v>1.013934136530169</v>
       </c>
       <c r="E10">
-        <v>1.017817346798866</v>
+        <v>1.007409630764986</v>
       </c>
       <c r="F10">
-        <v>1.03644474407301</v>
+        <v>1.01578111455673</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05629878173748</v>
+        <v>1.045198724110072</v>
       </c>
       <c r="J10">
-        <v>1.04089734575</v>
+        <v>1.018339013229227</v>
       </c>
       <c r="K10">
-        <v>1.047022248749985</v>
+        <v>1.028056282333505</v>
       </c>
       <c r="L10">
-        <v>1.031872186633186</v>
+        <v>1.021646378491903</v>
       </c>
       <c r="M10">
-        <v>1.050185744315908</v>
+        <v>1.029871164463865</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.032265194202241</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.030945275217613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.008561061455242</v>
+        <v>0.9874584641595762</v>
       </c>
       <c r="D11">
-        <v>1.029595665814765</v>
+        <v>1.01247571937519</v>
       </c>
       <c r="E11">
-        <v>1.013975974094969</v>
+        <v>1.006018502691713</v>
       </c>
       <c r="F11">
-        <v>1.032395218437218</v>
+        <v>1.01485967934917</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05425623719866</v>
+        <v>1.044742627466314</v>
       </c>
       <c r="J11">
-        <v>1.037581976773015</v>
+        <v>1.017362455968942</v>
       </c>
       <c r="K11">
-        <v>1.043980231047533</v>
+        <v>1.027166135562481</v>
       </c>
       <c r="L11">
-        <v>1.028639050736781</v>
+        <v>1.020827804439182</v>
       </c>
       <c r="M11">
-        <v>1.046731018084581</v>
+        <v>1.029506701201515</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.032416042667912</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.030348940792665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.006812193728475</v>
+        <v>0.9868471605436105</v>
       </c>
       <c r="D12">
-        <v>1.028226622454264</v>
+        <v>1.012088704929206</v>
       </c>
       <c r="E12">
-        <v>1.012528416062194</v>
+        <v>1.005801256296431</v>
       </c>
       <c r="F12">
-        <v>1.030869363028495</v>
+        <v>1.014955320819052</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053484113945853</v>
+        <v>1.044649728097667</v>
       </c>
       <c r="J12">
-        <v>1.036331021486534</v>
+        <v>1.01721879520869</v>
       </c>
       <c r="K12">
-        <v>1.042832314276532</v>
+        <v>1.026987912160578</v>
       </c>
       <c r="L12">
-        <v>1.027419464158154</v>
+        <v>1.020818151006695</v>
       </c>
       <c r="M12">
-        <v>1.045428124697025</v>
+        <v>1.029801501811514</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.032977592184673</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.030222929601039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.007188567289476</v>
+        <v>0.9874694145762987</v>
       </c>
       <c r="D13">
-        <v>1.028521205223728</v>
+        <v>1.012513579370723</v>
       </c>
       <c r="E13">
-        <v>1.012839882763604</v>
+        <v>1.006483563450276</v>
       </c>
       <c r="F13">
-        <v>1.031197670364931</v>
+        <v>1.015859908599039</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053650358748132</v>
+        <v>1.044842531837113</v>
       </c>
       <c r="J13">
-        <v>1.03660025897094</v>
+        <v>1.017719124981276</v>
       </c>
       <c r="K13">
-        <v>1.043079379575973</v>
+        <v>1.027361660076112</v>
       </c>
       <c r="L13">
-        <v>1.027681934686019</v>
+        <v>1.021443973613162</v>
       </c>
       <c r="M13">
-        <v>1.045708511202415</v>
+        <v>1.03064640187407</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.033923694138568</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.030484676597667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.008417053498686</v>
+        <v>0.9884612529388325</v>
       </c>
       <c r="D14">
-        <v>1.029482912158742</v>
+        <v>1.013178180362688</v>
       </c>
       <c r="E14">
-        <v>1.013856749317473</v>
+        <v>1.007364552084304</v>
       </c>
       <c r="F14">
-        <v>1.032269542008356</v>
+        <v>1.016855182130181</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054192692235617</v>
+        <v>1.045106286477365</v>
       </c>
       <c r="J14">
-        <v>1.037478977610732</v>
+        <v>1.018358415158304</v>
       </c>
       <c r="K14">
-        <v>1.043885717680572</v>
+        <v>1.027872431044002</v>
       </c>
       <c r="L14">
-        <v>1.028538627365127</v>
+        <v>1.022165695889101</v>
       </c>
       <c r="M14">
-        <v>1.046623729343823</v>
+        <v>1.031482645544118</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.034758746745871</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.03084724587155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.009170381199932</v>
+        <v>0.9889769165744423</v>
       </c>
       <c r="D15">
-        <v>1.030072786806994</v>
+        <v>1.013522377264432</v>
       </c>
       <c r="E15">
-        <v>1.014480487358269</v>
+        <v>1.007785305082636</v>
       </c>
       <c r="F15">
-        <v>1.032927038358879</v>
+        <v>1.017291909047173</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054525036313197</v>
+        <v>1.045235587326388</v>
       </c>
       <c r="J15">
-        <v>1.03801776368693</v>
+        <v>1.018661656030761</v>
       </c>
       <c r="K15">
-        <v>1.044380110709956</v>
+        <v>1.028123172037458</v>
       </c>
       <c r="L15">
-        <v>1.029063953486397</v>
+        <v>1.022490760163943</v>
       </c>
       <c r="M15">
-        <v>1.047184980421019</v>
+        <v>1.031824771788262</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.035066829571029</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.031030435357137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.013501842262589</v>
+        <v>0.991611265554695</v>
       </c>
       <c r="D16">
-        <v>1.033466464970327</v>
+        <v>1.015263165366525</v>
       </c>
       <c r="E16">
-        <v>1.018069462372384</v>
+        <v>1.009785959305876</v>
       </c>
       <c r="F16">
-        <v>1.03671054072469</v>
+        <v>1.019201299192236</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056432501626202</v>
+        <v>1.0458521597075</v>
       </c>
       <c r="J16">
-        <v>1.041114716867833</v>
+        <v>1.020083844940559</v>
       </c>
       <c r="K16">
-        <v>1.047221682562563</v>
+        <v>1.029326315742165</v>
       </c>
       <c r="L16">
-        <v>1.032084212435648</v>
+        <v>1.023944579454723</v>
       </c>
       <c r="M16">
-        <v>1.050412340375484</v>
+        <v>1.033196625898023</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.036112287875704</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.031884292604839</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.016173515696749</v>
+        <v>0.9931145160046613</v>
       </c>
       <c r="D17">
-        <v>1.035561398555611</v>
+        <v>1.016252181847719</v>
       </c>
       <c r="E17">
-        <v>1.020285379827449</v>
+        <v>1.010861145477295</v>
       </c>
       <c r="F17">
-        <v>1.039046812945978</v>
+        <v>1.020140795278867</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057605970196337</v>
+        <v>1.046183947510376</v>
       </c>
       <c r="J17">
-        <v>1.04302405029658</v>
+        <v>1.020839889110189</v>
       </c>
       <c r="K17">
-        <v>1.048973370857336</v>
+        <v>1.029981128305448</v>
       </c>
       <c r="L17">
-        <v>1.033946841810995</v>
+        <v>1.024681382229939</v>
       </c>
       <c r="M17">
-        <v>1.052403177946407</v>
+        <v>1.033804664608886</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.036463407849716</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.032349874594857</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017716106832914</v>
+        <v>0.9937698934503842</v>
       </c>
       <c r="D18">
-        <v>1.036771560125298</v>
+        <v>1.016671464548923</v>
       </c>
       <c r="E18">
-        <v>1.021565586725483</v>
+        <v>1.011205557107379</v>
       </c>
       <c r="F18">
-        <v>1.040396642687656</v>
+        <v>1.020273185198651</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.058282391039014</v>
+        <v>1.046296639281139</v>
       </c>
       <c r="J18">
-        <v>1.044126133149438</v>
+        <v>1.021070350592095</v>
       </c>
       <c r="K18">
-        <v>1.049984383217405</v>
+        <v>1.030208500754146</v>
       </c>
       <c r="L18">
-        <v>1.035022170937154</v>
+        <v>1.024833631233699</v>
       </c>
       <c r="M18">
-        <v>1.053552698195645</v>
+        <v>1.033750918116566</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.036182271062889</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.032498938670865</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018239472515739</v>
+        <v>0.9936632197019765</v>
       </c>
       <c r="D19">
-        <v>1.037182234024613</v>
+        <v>1.016586603364318</v>
       </c>
       <c r="E19">
-        <v>1.02200005796799</v>
+        <v>1.010887241198263</v>
       </c>
       <c r="F19">
-        <v>1.040854757546675</v>
+        <v>1.019666483104257</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.058511692225311</v>
+        <v>1.04621953720722</v>
       </c>
       <c r="J19">
-        <v>1.044499984257071</v>
+        <v>1.020831737990179</v>
       </c>
       <c r="K19">
-        <v>1.050327327720028</v>
+        <v>1.030062001290548</v>
       </c>
       <c r="L19">
-        <v>1.035386980838029</v>
+        <v>1.024457106205032</v>
       </c>
       <c r="M19">
-        <v>1.053942707228438</v>
+        <v>1.033091396821204</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.035333700039806</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.032401786224864</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.015888512465992</v>
+        <v>0.9914195630786802</v>
       </c>
       <c r="D20">
-        <v>1.035337859309537</v>
+        <v>1.015075567574025</v>
       </c>
       <c r="E20">
-        <v>1.020048914761568</v>
+        <v>1.008731478902523</v>
       </c>
       <c r="F20">
-        <v>1.038797495241696</v>
+        <v>1.017052986538589</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.057480905741994</v>
+        <v>1.045606693969245</v>
       </c>
       <c r="J20">
-        <v>1.042820405452941</v>
+        <v>1.019285300712362</v>
       </c>
       <c r="K20">
-        <v>1.04878654787755</v>
+        <v>1.028858411728104</v>
       </c>
       <c r="L20">
-        <v>1.033748157003558</v>
+        <v>1.022622513880197</v>
       </c>
       <c r="M20">
-        <v>1.052190799186681</v>
+        <v>1.030802464025064</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.032991596749457</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.031554738241219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.008056045020242</v>
+        <v>0.9864075929319253</v>
       </c>
       <c r="D21">
-        <v>1.029200271111393</v>
+        <v>1.011758267902044</v>
       </c>
       <c r="E21">
-        <v>1.013557890766023</v>
+        <v>1.004805446214015</v>
       </c>
       <c r="F21">
-        <v>1.031954513496856</v>
+        <v>1.013194759738513</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05403336625023</v>
+        <v>1.044409800668397</v>
       </c>
       <c r="J21">
-        <v>1.037220765469022</v>
+        <v>1.016484808472409</v>
       </c>
       <c r="K21">
-        <v>1.043648777284295</v>
+        <v>1.026520248684972</v>
       </c>
       <c r="L21">
-        <v>1.028286878090469</v>
+        <v>1.019696346296476</v>
       </c>
       <c r="M21">
-        <v>1.046354773938774</v>
+        <v>1.027930392249514</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.030677354372427</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.029904804062503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,81 +1493,105 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.002976516799525</v>
+        <v>0.9832196274833607</v>
       </c>
       <c r="D22">
-        <v>1.025226037725018</v>
+        <v>1.009647713184632</v>
       </c>
       <c r="E22">
-        <v>1.009356165020801</v>
+        <v>1.00233727324394</v>
       </c>
       <c r="F22">
-        <v>1.027525786531956</v>
+        <v>1.01079968303097</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051787588885167</v>
+        <v>1.043635484081943</v>
       </c>
       <c r="J22">
-        <v>1.033586621056943</v>
+        <v>1.014714413999936</v>
       </c>
       <c r="K22">
-        <v>1.040313795955601</v>
+        <v>1.025030439548044</v>
       </c>
       <c r="L22">
-        <v>1.024744525440886</v>
+        <v>1.017862570056435</v>
       </c>
       <c r="M22">
-        <v>1.042570987517566</v>
+        <v>1.026160189655516</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.029276336854571</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.028837837124323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.005684629147466</v>
+        <v>0.9849092347775907</v>
       </c>
       <c r="D23">
-        <v>1.027344253676123</v>
+        <v>1.010761613075218</v>
       </c>
       <c r="E23">
-        <v>1.011595507937271</v>
+        <v>1.003643689172316</v>
       </c>
       <c r="F23">
-        <v>1.029886034325637</v>
+        <v>1.012068304240414</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052985821129323</v>
+        <v>1.044044337190847</v>
       </c>
       <c r="J23">
-        <v>1.035524360614703</v>
+        <v>1.015650069256647</v>
       </c>
       <c r="K23">
-        <v>1.042092069759027</v>
+        <v>1.025814907905363</v>
       </c>
       <c r="L23">
-        <v>1.026633128767046</v>
+        <v>1.018832161074874</v>
       </c>
       <c r="M23">
-        <v>1.044588156150582</v>
+        <v>1.027097053308697</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.030017813010188</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.029382794264369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016017341695101</v>
+        <v>0.9914296853463628</v>
       </c>
       <c r="D24">
-        <v>1.035438903372752</v>
+        <v>1.015072808656499</v>
       </c>
       <c r="E24">
-        <v>1.020155801055139</v>
+        <v>1.008704881712449</v>
       </c>
       <c r="F24">
-        <v>1.038910190870392</v>
+        <v>1.016987613713397</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057537441782149</v>
+        <v>1.045597061210134</v>
       </c>
       <c r="J24">
-        <v>1.04291245954224</v>
+        <v>1.019261681180064</v>
       </c>
       <c r="K24">
-        <v>1.048870998176092</v>
+        <v>1.028840300179854</v>
       </c>
       <c r="L24">
-        <v>1.03383796836235</v>
+        <v>1.022580835127168</v>
       </c>
       <c r="M24">
-        <v>1.052286800072832</v>
+        <v>1.030722833785188</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.032887411782319</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.031514367628032</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027395158173465</v>
+        <v>0.9987196504200356</v>
       </c>
       <c r="D25">
-        <v>1.044373932667388</v>
+        <v>1.019900953962594</v>
       </c>
       <c r="E25">
-        <v>1.029610909959398</v>
+        <v>1.014398220480191</v>
       </c>
       <c r="F25">
-        <v>1.04888111261574</v>
+        <v>1.022534441799779</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.062506081105338</v>
+        <v>1.047269904524829</v>
       </c>
       <c r="J25">
-        <v>1.051034475910187</v>
+        <v>1.023290180397001</v>
       </c>
       <c r="K25">
-        <v>1.056320351074898</v>
+        <v>1.03219799314184</v>
       </c>
       <c r="L25">
-        <v>1.041766309152587</v>
+        <v>1.026777059948067</v>
       </c>
       <c r="M25">
-        <v>1.060765206133704</v>
+        <v>1.034792728596252</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.03610848777181</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.033885573728312</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_45/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004307861633173</v>
+        <v>1.003769380472769</v>
       </c>
       <c r="D2">
-        <v>1.023591879638442</v>
+        <v>1.02280481526074</v>
       </c>
       <c r="E2">
-        <v>1.018786403766683</v>
+        <v>1.018358767240415</v>
       </c>
       <c r="F2">
-        <v>1.026823529733153</v>
+        <v>1.026477088230382</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048489986666958</v>
+        <v>1.04809041141028</v>
       </c>
       <c r="J2">
-        <v>1.026360484332372</v>
+        <v>1.025837931573149</v>
       </c>
       <c r="K2">
-        <v>1.034732042327571</v>
+        <v>1.033955328327933</v>
       </c>
       <c r="L2">
-        <v>1.029990074249097</v>
+        <v>1.029568125700638</v>
       </c>
       <c r="M2">
-        <v>1.037921402568811</v>
+        <v>1.0375794786899</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.03858463434832</v>
+        <v>1.038314023750721</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.035628804244352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035088405145821</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021156864288028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008266934063592</v>
+        <v>1.007606495688688</v>
       </c>
       <c r="D3">
-        <v>1.026215744590286</v>
+        <v>1.025250457413909</v>
       </c>
       <c r="E3">
-        <v>1.021910657886858</v>
+        <v>1.021383205311189</v>
       </c>
       <c r="F3">
-        <v>1.029881046804259</v>
+        <v>1.02945464463665</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04932804674894</v>
+        <v>1.048837476706298</v>
       </c>
       <c r="J3">
-        <v>1.028534743322889</v>
+        <v>1.027891926124616</v>
       </c>
       <c r="K3">
-        <v>1.036523828194142</v>
+        <v>1.035570134709172</v>
       </c>
       <c r="L3">
-        <v>1.032270658106627</v>
+        <v>1.031749603659113</v>
       </c>
       <c r="M3">
-        <v>1.040145353230643</v>
+        <v>1.039724024009427</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.040344744719621</v>
+        <v>1.040011290741286</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036893088249317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036227269255726</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021483506197856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010780485871019</v>
+        <v>1.010043508688899</v>
       </c>
       <c r="D4">
-        <v>1.027882067248273</v>
+        <v>1.026804344940896</v>
       </c>
       <c r="E4">
-        <v>1.023900529086162</v>
+        <v>1.023310385327594</v>
       </c>
       <c r="F4">
-        <v>1.031831028550608</v>
+        <v>1.031354441772839</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049845308548319</v>
+        <v>1.049297219573224</v>
       </c>
       <c r="J4">
-        <v>1.029912388800658</v>
+        <v>1.029193743581975</v>
       </c>
       <c r="K4">
-        <v>1.037655235101786</v>
+        <v>1.03658968031688</v>
       </c>
       <c r="L4">
-        <v>1.033718805862513</v>
+        <v>1.033135384994112</v>
       </c>
       <c r="M4">
-        <v>1.04155987983635</v>
+        <v>1.041088619309581</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.041464247059299</v>
+        <v>1.041091276351328</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037693994785421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036949161115615</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021687107860162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011828535049262</v>
+        <v>1.01105990281127</v>
       </c>
       <c r="D5">
-        <v>1.028578671561409</v>
+        <v>1.027454347038591</v>
       </c>
       <c r="E5">
-        <v>1.024731908037708</v>
+        <v>1.024115817878925</v>
       </c>
       <c r="F5">
-        <v>1.032645937156423</v>
+        <v>1.032148590284298</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050058606483139</v>
+        <v>1.049486649927407</v>
       </c>
       <c r="J5">
-        <v>1.030487208031872</v>
+        <v>1.029737123616468</v>
       </c>
       <c r="K5">
-        <v>1.038127721745271</v>
+        <v>1.03701575465041</v>
       </c>
       <c r="L5">
-        <v>1.03432337602282</v>
+        <v>1.033714115821523</v>
       </c>
       <c r="M5">
-        <v>1.042150559905992</v>
+        <v>1.041658622579086</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.041931729955215</v>
+        <v>1.041542395211085</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038035274430613</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037258335896861</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021771917786057</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012006955817038</v>
+        <v>1.011233015309052</v>
       </c>
       <c r="D6">
-        <v>1.028699392112952</v>
+        <v>1.027567280683438</v>
       </c>
       <c r="E6">
-        <v>1.024873769787691</v>
+        <v>1.024253316312973</v>
       </c>
       <c r="F6">
-        <v>1.032784502922228</v>
+        <v>1.03228366811693</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050096204569008</v>
+        <v>1.049520258257065</v>
       </c>
       <c r="J6">
-        <v>1.03058634853711</v>
+        <v>1.029830987880386</v>
       </c>
       <c r="K6">
-        <v>1.038210812192547</v>
+        <v>1.037091087066614</v>
       </c>
       <c r="L6">
-        <v>1.034427180745293</v>
+        <v>1.033813573838861</v>
       </c>
       <c r="M6">
-        <v>1.04225150519373</v>
+        <v>1.041756092821496</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.042011621219595</v>
+        <v>1.041619536257304</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038102793898465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037321241113239</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021787318634436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010802807178017</v>
+        <v>1.010065331501851</v>
       </c>
       <c r="D7">
-        <v>1.027902560186607</v>
+        <v>1.026824208446574</v>
       </c>
       <c r="E7">
-        <v>1.02391888643581</v>
+        <v>1.02332830025052</v>
       </c>
       <c r="F7">
-        <v>1.031847619422857</v>
+        <v>1.031370686499073</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049853855485049</v>
+        <v>1.049305444093685</v>
       </c>
       <c r="J7">
-        <v>1.029928164318366</v>
+        <v>1.029209025229067</v>
       </c>
       <c r="K7">
-        <v>1.037672604521917</v>
+        <v>1.036606422759294</v>
       </c>
       <c r="L7">
-        <v>1.03373404671787</v>
+        <v>1.033150185921726</v>
       </c>
       <c r="M7">
-        <v>1.041573407706066</v>
+        <v>1.041101802916536</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.041474953446785</v>
+        <v>1.041101710283672</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037726443762654</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036983171779015</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02169163063001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005666161195583</v>
+        <v>1.005085825710146</v>
       </c>
       <c r="D8">
-        <v>1.024498770619729</v>
+        <v>1.023650840048741</v>
       </c>
       <c r="E8">
-        <v>1.019857836691677</v>
+        <v>1.019395905956929</v>
       </c>
       <c r="F8">
-        <v>1.027869807580042</v>
+        <v>1.027495897210615</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048785304839893</v>
+        <v>1.048354677050316</v>
       </c>
       <c r="J8">
-        <v>1.027111267260285</v>
+        <v>1.026547520602824</v>
       </c>
       <c r="K8">
-        <v>1.035356809037556</v>
+        <v>1.034519699174244</v>
       </c>
       <c r="L8">
-        <v>1.030775375011906</v>
+        <v>1.030319403625066</v>
       </c>
       <c r="M8">
-        <v>1.038685047534293</v>
+        <v>1.038315867021995</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.039189009494227</v>
+        <v>1.038896827279362</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.036093559785993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.03551272905253</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021272988937587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9962157826697957</v>
+        <v>0.9959320485101906</v>
       </c>
       <c r="D9">
-        <v>1.018233980824613</v>
+        <v>1.01781545688879</v>
       </c>
       <c r="E9">
-        <v>1.012437243490375</v>
+        <v>1.012217690972767</v>
       </c>
       <c r="F9">
-        <v>1.020624343565943</v>
+        <v>1.020444836116525</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046698250392967</v>
+        <v>1.046486204448976</v>
       </c>
       <c r="J9">
-        <v>1.021902882771385</v>
+        <v>1.021629278988674</v>
       </c>
       <c r="K9">
-        <v>1.031037992723532</v>
+        <v>1.030625955313183</v>
       </c>
       <c r="L9">
-        <v>1.025331707194663</v>
+        <v>1.025115606611427</v>
       </c>
       <c r="M9">
-        <v>1.03339143839911</v>
+        <v>1.033214695617754</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.034999452855094</v>
+        <v>1.034859571701811</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.033036651971625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.032756106079098</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020469209307762</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9897111479577719</v>
+        <v>0.9896363705683582</v>
       </c>
       <c r="D10">
-        <v>1.013934136530169</v>
+        <v>1.01381457443534</v>
       </c>
       <c r="E10">
-        <v>1.007409630764986</v>
+        <v>1.007359949454918</v>
       </c>
       <c r="F10">
-        <v>1.01578111455673</v>
+        <v>1.015738223058582</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045198724110072</v>
+        <v>1.045138240785124</v>
       </c>
       <c r="J10">
-        <v>1.018339013229227</v>
+        <v>1.01826729130041</v>
       </c>
       <c r="K10">
-        <v>1.028056282333505</v>
+        <v>1.027938803149458</v>
       </c>
       <c r="L10">
-        <v>1.021646378491903</v>
+        <v>1.021597577214048</v>
       </c>
       <c r="M10">
-        <v>1.029871164463865</v>
+        <v>1.029829016600443</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.032265194202241</v>
+        <v>1.032231838717892</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.030945275217613</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.030874694727951</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019905027957023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9874584641595762</v>
+        <v>0.9874471688915919</v>
       </c>
       <c r="D11">
-        <v>1.01247571937519</v>
+        <v>1.012451537692137</v>
       </c>
       <c r="E11">
-        <v>1.006018502691713</v>
+        <v>1.006017567392694</v>
       </c>
       <c r="F11">
-        <v>1.01485967934917</v>
+        <v>1.014856766523326</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044742627466314</v>
+        <v>1.044730402377254</v>
       </c>
       <c r="J11">
-        <v>1.017362455968942</v>
+        <v>1.017351647812854</v>
       </c>
       <c r="K11">
-        <v>1.027166135562481</v>
+        <v>1.027142395412474</v>
       </c>
       <c r="L11">
-        <v>1.020827804439182</v>
+        <v>1.020826886504382</v>
       </c>
       <c r="M11">
-        <v>1.029506701201515</v>
+        <v>1.029503841234934</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.032416042667912</v>
+        <v>1.032413780467609</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.030348940792665</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.030347869169169</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019764369924907</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9868471605436105</v>
+        <v>0.9868490333035684</v>
       </c>
       <c r="D12">
-        <v>1.012088704929206</v>
+        <v>1.012086579973878</v>
       </c>
       <c r="E12">
-        <v>1.005801256296431</v>
+        <v>1.005808918509967</v>
       </c>
       <c r="F12">
-        <v>1.014955320819052</v>
+        <v>1.01495987349995</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044649728097667</v>
+        <v>1.044648654067834</v>
       </c>
       <c r="J12">
-        <v>1.01721879520869</v>
+        <v>1.017220585657404</v>
       </c>
       <c r="K12">
-        <v>1.026987912160578</v>
+        <v>1.026985826657674</v>
       </c>
       <c r="L12">
-        <v>1.020818151006695</v>
+        <v>1.02082566863005</v>
       </c>
       <c r="M12">
-        <v>1.029801501811514</v>
+        <v>1.029805970588036</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.032977592184673</v>
+        <v>1.032981125723637</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.030222929601039</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.030237171038241</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019750568428369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9874694145762987</v>
+        <v>0.987446049363393</v>
       </c>
       <c r="D13">
-        <v>1.012513579370723</v>
+        <v>1.012478028941858</v>
       </c>
       <c r="E13">
-        <v>1.006483563450276</v>
+        <v>1.006469156922867</v>
       </c>
       <c r="F13">
-        <v>1.015859908599039</v>
+        <v>1.015847162235529</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044842531837113</v>
+        <v>1.044824562214204</v>
       </c>
       <c r="J13">
-        <v>1.017719124981276</v>
+        <v>1.017696781137729</v>
       </c>
       <c r="K13">
-        <v>1.027361660076112</v>
+        <v>1.027326766783145</v>
       </c>
       <c r="L13">
-        <v>1.021443973613162</v>
+        <v>1.021429837560873</v>
       </c>
       <c r="M13">
-        <v>1.03064640187407</v>
+        <v>1.030633889098144</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.033923694138568</v>
+        <v>1.03391380257994</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.030484676597667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03047547310189</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019839271478039</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9884612529388325</v>
+        <v>0.988403266253579</v>
       </c>
       <c r="D14">
-        <v>1.013178180362688</v>
+        <v>1.01309449408822</v>
       </c>
       <c r="E14">
-        <v>1.007364552084304</v>
+        <v>1.007321225393646</v>
       </c>
       <c r="F14">
-        <v>1.016855182130181</v>
+        <v>1.0168194487045</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045106286477365</v>
+        <v>1.045063978220675</v>
       </c>
       <c r="J14">
-        <v>1.018358415158304</v>
+        <v>1.018302925675934</v>
       </c>
       <c r="K14">
-        <v>1.027872431044002</v>
+        <v>1.027790272151098</v>
       </c>
       <c r="L14">
-        <v>1.022165695889101</v>
+        <v>1.022123171870696</v>
       </c>
       <c r="M14">
-        <v>1.031482645544118</v>
+        <v>1.031447558140796</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.034758746745871</v>
+        <v>1.034731013332533</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03084724587155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03080475591014</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019947557956688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9889769165744423</v>
+        <v>0.9889018754709091</v>
       </c>
       <c r="D15">
-        <v>1.013522377264432</v>
+        <v>1.013414564946716</v>
       </c>
       <c r="E15">
-        <v>1.007785305082636</v>
+        <v>1.007728020232192</v>
       </c>
       <c r="F15">
-        <v>1.017291909047173</v>
+        <v>1.017245008479269</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045235587326388</v>
+        <v>1.045181076164128</v>
       </c>
       <c r="J15">
-        <v>1.018661656030761</v>
+        <v>1.018589817668654</v>
       </c>
       <c r="K15">
-        <v>1.028123172037458</v>
+        <v>1.028017312310421</v>
       </c>
       <c r="L15">
-        <v>1.022490760163943</v>
+        <v>1.022434528177736</v>
       </c>
       <c r="M15">
-        <v>1.031824771788262</v>
+        <v>1.03177871241299</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035066829571029</v>
+        <v>1.035030424769003</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.031030435357137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.030971757764884</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019998061426084</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.991611265554695</v>
+        <v>0.9914518824449959</v>
       </c>
       <c r="D16">
-        <v>1.015263165366525</v>
+        <v>1.015034317199986</v>
       </c>
       <c r="E16">
-        <v>1.009785959305876</v>
+        <v>1.009660878370977</v>
       </c>
       <c r="F16">
-        <v>1.019201299192236</v>
+        <v>1.019099824664971</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.0458521597075</v>
+        <v>1.045736380712887</v>
       </c>
       <c r="J16">
-        <v>1.020083844940559</v>
+        <v>1.019930918969599</v>
       </c>
       <c r="K16">
-        <v>1.029326315742165</v>
+        <v>1.029101429799208</v>
       </c>
       <c r="L16">
-        <v>1.023944579454723</v>
+        <v>1.023821694404877</v>
       </c>
       <c r="M16">
-        <v>1.033196625898023</v>
+        <v>1.033096890491324</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036112287875704</v>
+        <v>1.0360334558697</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.031884292604839</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.031741753058222</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02022653003637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9931145160046613</v>
+        <v>0.9929086090318632</v>
       </c>
       <c r="D17">
-        <v>1.016252181847719</v>
+        <v>1.015955786952299</v>
       </c>
       <c r="E17">
-        <v>1.010861145477295</v>
+        <v>1.010699120697665</v>
       </c>
       <c r="F17">
-        <v>1.020140795278867</v>
+        <v>1.020009435196608</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046183947510376</v>
+        <v>1.046033937926665</v>
       </c>
       <c r="J17">
-        <v>1.020839889110189</v>
+        <v>1.020642053200769</v>
       </c>
       <c r="K17">
-        <v>1.029981128305448</v>
+        <v>1.029689720019104</v>
       </c>
       <c r="L17">
-        <v>1.024681382229939</v>
+        <v>1.024522120602758</v>
       </c>
       <c r="M17">
-        <v>1.033804664608886</v>
+        <v>1.033675492446647</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.036463407849716</v>
+        <v>1.036361298452839</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.032349874594857</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.032160546176798</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020344293544487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9937698934503842</v>
+        <v>0.9935463736276692</v>
       </c>
       <c r="D18">
-        <v>1.016671464548923</v>
+        <v>1.016348149042327</v>
       </c>
       <c r="E18">
-        <v>1.011205557107379</v>
+        <v>1.011030453059666</v>
       </c>
       <c r="F18">
-        <v>1.020273185198651</v>
+        <v>1.020130938715306</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046296639281139</v>
+        <v>1.04613296913083</v>
       </c>
       <c r="J18">
-        <v>1.021070350592095</v>
+        <v>1.020855427978498</v>
       </c>
       <c r="K18">
-        <v>1.030208500754146</v>
+        <v>1.0298905351857</v>
       </c>
       <c r="L18">
-        <v>1.024833631233699</v>
+        <v>1.024661464625081</v>
       </c>
       <c r="M18">
-        <v>1.033750918116566</v>
+        <v>1.033611003546888</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.036182271062889</v>
+        <v>1.036071646658522</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.032498938670865</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.032289693510927</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020373116467106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9936632197019765</v>
+        <v>0.9934490291004844</v>
       </c>
       <c r="D19">
-        <v>1.016586603364318</v>
+        <v>1.016274057791008</v>
       </c>
       <c r="E19">
-        <v>1.010887241198263</v>
+        <v>1.010721311084832</v>
       </c>
       <c r="F19">
-        <v>1.019666483104257</v>
+        <v>1.019531069808095</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04621953720722</v>
+        <v>1.046061308647745</v>
       </c>
       <c r="J19">
-        <v>1.020831737990179</v>
+        <v>1.020625739876407</v>
       </c>
       <c r="K19">
-        <v>1.030062001290548</v>
+        <v>1.02975460084397</v>
       </c>
       <c r="L19">
-        <v>1.024457106205032</v>
+        <v>1.024293946952059</v>
       </c>
       <c r="M19">
-        <v>1.033091396821204</v>
+        <v>1.032958194929148</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.035333700039806</v>
+        <v>1.035228348306584</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.032401786224864</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.032200638212778</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020325426993338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9914195630786802</v>
+        <v>0.9912895294744918</v>
       </c>
       <c r="D20">
-        <v>1.015075567574025</v>
+        <v>1.01487783685223</v>
       </c>
       <c r="E20">
-        <v>1.008731478902523</v>
+        <v>1.00863677883709</v>
       </c>
       <c r="F20">
-        <v>1.017052986538589</v>
+        <v>1.016973906392711</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045606693969245</v>
+        <v>1.045506628049446</v>
       </c>
       <c r="J20">
-        <v>1.019285300712362</v>
+        <v>1.019160404258202</v>
       </c>
       <c r="K20">
-        <v>1.028858411728104</v>
+        <v>1.028664026712482</v>
       </c>
       <c r="L20">
-        <v>1.022622513880197</v>
+        <v>1.022529442139146</v>
       </c>
       <c r="M20">
-        <v>1.030802464025064</v>
+        <v>1.030724715053194</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.032991596749457</v>
+        <v>1.032930066092012</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.031554738241219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.031433893516869</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020060997318865</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9864075929319253</v>
+        <v>0.9864429561179333</v>
       </c>
       <c r="D21">
-        <v>1.011758267902044</v>
+        <v>1.011794330141873</v>
       </c>
       <c r="E21">
-        <v>1.004805446214015</v>
+        <v>1.004845431776573</v>
       </c>
       <c r="F21">
-        <v>1.013194759738513</v>
+        <v>1.013223968422333</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044409800668397</v>
+        <v>1.044428030314973</v>
       </c>
       <c r="J21">
-        <v>1.016484808472409</v>
+        <v>1.016518634378652</v>
       </c>
       <c r="K21">
-        <v>1.026520248684972</v>
+        <v>1.02655564827507</v>
       </c>
       <c r="L21">
-        <v>1.019696346296476</v>
+        <v>1.019735583788067</v>
       </c>
       <c r="M21">
-        <v>1.027930392249514</v>
+        <v>1.027959066193989</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.030677354372427</v>
+        <v>1.030700048191458</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.029904804062503</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.029946768675154</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019607533648565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9832196274833607</v>
+        <v>0.9833611853041889</v>
       </c>
       <c r="D22">
-        <v>1.009647713184632</v>
+        <v>1.009832746034297</v>
       </c>
       <c r="E22">
-        <v>1.00233727324394</v>
+        <v>1.00246345636748</v>
       </c>
       <c r="F22">
-        <v>1.01079968303097</v>
+        <v>1.010898304386776</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043635484081943</v>
+        <v>1.043728954015968</v>
       </c>
       <c r="J22">
-        <v>1.014714413999936</v>
+        <v>1.014849451310022</v>
       </c>
       <c r="K22">
-        <v>1.025030439548044</v>
+        <v>1.025211898919513</v>
       </c>
       <c r="L22">
-        <v>1.017862570056435</v>
+        <v>1.017986269161534</v>
       </c>
       <c r="M22">
-        <v>1.026160189655516</v>
+        <v>1.02625691183806</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.029276336854571</v>
+        <v>1.029352887189583</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.028837837124323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.028981775089464</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019316545008104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9849092347775907</v>
+        <v>0.9849943149058519</v>
       </c>
       <c r="D23">
-        <v>1.010761613075218</v>
+        <v>1.010867323032865</v>
       </c>
       <c r="E23">
-        <v>1.003643689172316</v>
+        <v>1.003724107627055</v>
       </c>
       <c r="F23">
-        <v>1.012068304240414</v>
+        <v>1.012130051233633</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044044337190847</v>
+        <v>1.0440977565749</v>
       </c>
       <c r="J23">
-        <v>1.015650069256647</v>
+        <v>1.015731348028982</v>
       </c>
       <c r="K23">
-        <v>1.025814907905363</v>
+        <v>1.025918629054809</v>
       </c>
       <c r="L23">
-        <v>1.018832161074874</v>
+        <v>1.018911038279374</v>
       </c>
       <c r="M23">
-        <v>1.027097053308697</v>
+        <v>1.027157642452688</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.030017813010188</v>
+        <v>1.030065765964514</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.029382794264369</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.029470816653684</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019468978194075</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9914296853463628</v>
+        <v>0.9913002389928477</v>
       </c>
       <c r="D24">
-        <v>1.015072808656499</v>
+        <v>1.014875133836994</v>
       </c>
       <c r="E24">
-        <v>1.008704881712449</v>
+        <v>1.008610974763501</v>
       </c>
       <c r="F24">
-        <v>1.016987613713397</v>
+        <v>1.016909080459261</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045597061210134</v>
+        <v>1.045497021919657</v>
       </c>
       <c r="J24">
-        <v>1.019261681180064</v>
+        <v>1.019137341424544</v>
       </c>
       <c r="K24">
-        <v>1.028840300179854</v>
+        <v>1.028645965849843</v>
       </c>
       <c r="L24">
-        <v>1.022580835127168</v>
+        <v>1.022488540896872</v>
       </c>
       <c r="M24">
-        <v>1.030722833785188</v>
+        <v>1.030645621020958</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.032887411782319</v>
+        <v>1.032826302399276</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.031514367628032</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.031390877230044</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020052989352105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9987196504200356</v>
+        <v>0.9983564940891743</v>
       </c>
       <c r="D25">
-        <v>1.019900953962594</v>
+        <v>1.019368409192922</v>
       </c>
       <c r="E25">
-        <v>1.014398220480191</v>
+        <v>1.014113769238039</v>
       </c>
       <c r="F25">
-        <v>1.022534441799779</v>
+        <v>1.022302855263651</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047269904524829</v>
+        <v>1.046999925989653</v>
       </c>
       <c r="J25">
-        <v>1.023290180397001</v>
+        <v>1.022939295637955</v>
       </c>
       <c r="K25">
-        <v>1.03219799314184</v>
+        <v>1.031673315815278</v>
       </c>
       <c r="L25">
-        <v>1.026777059948067</v>
+        <v>1.026496867889173</v>
       </c>
       <c r="M25">
-        <v>1.034792728596252</v>
+        <v>1.034564539744919</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.03610848777181</v>
+        <v>1.035927890463439</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.033885573728312</v>
+        <v>1.03352819391896</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020689474591252</v>
       </c>
     </row>
   </sheetData>
